--- a/teaching/traditional_assets/database/data/denmark/denmark_trucking.xlsx
+++ b/teaching/traditional_assets/database/data/denmark/denmark_trucking.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="ngm_freetr" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,22 +593,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>-0.3495201535508637</v>
+        <v>-0.2474850809889173</v>
       </c>
       <c r="H2">
-        <v>-0.3495201535508637</v>
+        <v>-0.2474850809889173</v>
       </c>
       <c r="I2">
-        <v>-0.4689059500959693</v>
+        <v>-0.518840579710145</v>
       </c>
       <c r="J2">
-        <v>-0.4689059500959693</v>
+        <v>-0.4816874226203481</v>
       </c>
       <c r="K2">
-        <v>-5.447</v>
+        <v>-6.078</v>
       </c>
       <c r="L2">
-        <v>-0.5227447216890595</v>
+        <v>-0.5181585677749361</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -630,73 +632,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>2.28</v>
+        <v>2.051</v>
       </c>
       <c r="V2">
-        <v>0.06084867894315453</v>
+        <v>0.01786585365853659</v>
       </c>
       <c r="W2">
-        <v>-1.906329262171658</v>
+        <v>-3.40264116575592</v>
       </c>
       <c r="X2">
-        <v>0.05638496356936357</v>
+        <v>0.05022889445258327</v>
       </c>
       <c r="Y2">
-        <v>-1.962714225741022</v>
+        <v>-3.452870060208503</v>
       </c>
       <c r="Z2">
-        <v>1.501440922190202</v>
+        <v>1.37466307277628</v>
       </c>
       <c r="AA2">
-        <v>-0.721899079120466</v>
+        <v>-0.3583324132450827</v>
       </c>
       <c r="AB2">
-        <v>0.0532170298489239</v>
+        <v>0.04755974349163415</v>
       </c>
       <c r="AC2">
-        <v>-0.77511610896939</v>
+        <v>-0.4058921567367169</v>
       </c>
       <c r="AD2">
-        <v>7.21</v>
+        <v>18.931</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>7.21</v>
+        <v>18.931</v>
       </c>
       <c r="AG2">
-        <v>4.93</v>
+        <v>16.88</v>
       </c>
       <c r="AH2">
-        <v>0.1613697403760072</v>
+        <v>0.1415602964159395</v>
       </c>
       <c r="AI2">
-        <v>0.7345899133978605</v>
+        <v>0.9140112012359985</v>
       </c>
       <c r="AJ2">
-        <v>0.1162735849056604</v>
+        <v>0.1281895504252734</v>
       </c>
       <c r="AK2">
-        <v>0.6542800265428003</v>
+        <v>0.9045603129521462</v>
       </c>
       <c r="AL2">
-        <v>0.211</v>
+        <v>0.457</v>
       </c>
       <c r="AM2">
-        <v>0.211</v>
+        <v>0.457</v>
       </c>
       <c r="AN2">
-        <v>-2.08261120739457</v>
+        <v>-3.571212978683267</v>
       </c>
       <c r="AO2">
-        <v>-23.1563981042654</v>
+        <v>-13.31728665207877</v>
       </c>
       <c r="AP2">
-        <v>-1.424032351242057</v>
+        <v>-3.184304848141859</v>
       </c>
       <c r="AQ2">
-        <v>-23.1563981042654</v>
+        <v>-13.31728665207877</v>
       </c>
     </row>
     <row r="3">
@@ -707,7 +709,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Green Mobility A/S (CPSE:GREENM)</t>
+          <t>Freetrailer Group A/S (NGM:FREETR)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -716,22 +718,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>-0.672514619883041</v>
+        <v>0.07612612612612613</v>
       </c>
       <c r="H3">
-        <v>-0.672514619883041</v>
+        <v>0.07612612612612613</v>
       </c>
       <c r="I3">
-        <v>-0.8538011695906432</v>
+        <v>0.06816816816816818</v>
       </c>
       <c r="J3">
-        <v>-0.8538011695906432</v>
+        <v>0.05840539031493806</v>
       </c>
       <c r="K3">
-        <v>-5.03</v>
+        <v>0.342</v>
       </c>
       <c r="L3">
-        <v>-0.9805068226120859</v>
+        <v>0.05135135135135135</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -740,7 +742,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -749,79 +751,79 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1.21</v>
+        <v>1.53</v>
       </c>
       <c r="V3">
-        <v>0.03941368078175896</v>
+        <v>0.095625</v>
       </c>
       <c r="W3">
-        <v>-3.618705035971224</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="X3">
-        <v>0.05940428814288705</v>
+        <v>0.04741813196455597</v>
       </c>
       <c r="Y3">
-        <v>-3.678109324114111</v>
+        <v>0.1636929791465551</v>
       </c>
       <c r="Z3">
-        <v>0.8194888178913738</v>
+        <v>4.016887816646562</v>
       </c>
       <c r="AA3">
-        <v>-0.6996805111821086</v>
+        <v>0.2346079007825618</v>
       </c>
       <c r="AB3">
-        <v>0.05320777834662351</v>
+        <v>0.04736535184535559</v>
       </c>
       <c r="AC3">
-        <v>-0.7528882895287321</v>
+        <v>0.1872425489372062</v>
       </c>
       <c r="AD3">
-        <v>7.17</v>
+        <v>0.031</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>7.17</v>
+        <v>0.031</v>
       </c>
       <c r="AG3">
-        <v>5.96</v>
+        <v>-1.499</v>
       </c>
       <c r="AH3">
-        <v>0.1893319250066015</v>
+        <v>0.001933753352878797</v>
       </c>
       <c r="AI3">
-        <v>0.8868274582560296</v>
+        <v>0.0135312090790048</v>
       </c>
       <c r="AJ3">
-        <v>0.1625750136388434</v>
+        <v>-0.1033721812288808</v>
       </c>
       <c r="AK3">
-        <v>0.8669090909090909</v>
+        <v>-1.969776609724048</v>
       </c>
       <c r="AL3">
-        <v>0.191</v>
+        <v>0.057</v>
       </c>
       <c r="AM3">
-        <v>0.191</v>
+        <v>0.057</v>
       </c>
       <c r="AN3">
-        <v>-2.192660550458716</v>
+        <v>0.04499274310595066</v>
       </c>
       <c r="AO3">
-        <v>-22.93193717277487</v>
+        <v>7.964912280701754</v>
       </c>
       <c r="AP3">
-        <v>-1.82262996941896</v>
+        <v>-2.175616835994195</v>
       </c>
       <c r="AQ3">
-        <v>-22.93193717277487</v>
+        <v>7.964912280701754</v>
       </c>
     </row>
     <row r="4">
@@ -832,7 +834,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Freetrailer Group A/S (NGM:FREETR)</t>
+          <t>Green Mobility A/S (CPSE:GREENM)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -841,22 +843,22 @@
         </is>
       </c>
       <c r="G4">
-        <v>-0.03629489603024575</v>
+        <v>-0.6725838264299803</v>
       </c>
       <c r="H4">
-        <v>-0.03629489603024575</v>
+        <v>-0.6725838264299803</v>
       </c>
       <c r="I4">
-        <v>-0.09565217391304348</v>
+        <v>-1.289940828402367</v>
       </c>
       <c r="J4">
-        <v>-0.09565217391304348</v>
+        <v>-1.289940828402367</v>
       </c>
       <c r="K4">
-        <v>-0.417</v>
+        <v>-6.42</v>
       </c>
       <c r="L4">
-        <v>-0.07882797731568998</v>
+        <v>-1.266272189349112</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -880,73 +882,8791 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.07</v>
+        <v>0.521</v>
       </c>
       <c r="V4">
-        <v>0.1580502215657312</v>
+        <v>0.005273279352226721</v>
       </c>
       <c r="W4">
-        <v>-0.193953488372093</v>
+        <v>-7.016393442622951</v>
       </c>
       <c r="X4">
-        <v>0.0533656389958401</v>
+        <v>0.05303965694061058</v>
       </c>
       <c r="Y4">
-        <v>-0.2473191273679331</v>
+        <v>-7.069433099563561</v>
       </c>
       <c r="Z4">
-        <v>7.779411764705883</v>
+        <v>0.7374545454545454</v>
       </c>
       <c r="AA4">
-        <v>-0.7441176470588236</v>
+        <v>-0.9512727272727272</v>
       </c>
       <c r="AB4">
-        <v>0.0532262813512243</v>
+        <v>0.04775413513791271</v>
       </c>
       <c r="AC4">
-        <v>-0.7973439284100479</v>
+        <v>-0.9990268624106399</v>
       </c>
       <c r="AD4">
+        <v>18.9</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>18.9</v>
+      </c>
+      <c r="AG4">
+        <v>18.379</v>
+      </c>
+      <c r="AH4">
+        <v>0.1605777400169923</v>
+      </c>
+      <c r="AI4">
+        <v>1.026002931436947</v>
+      </c>
+      <c r="AJ4">
+        <v>0.1568455098609819</v>
+      </c>
+      <c r="AK4">
+        <v>1.026759776536313</v>
+      </c>
+      <c r="AL4">
+        <v>0.4</v>
+      </c>
+      <c r="AM4">
+        <v>0.4</v>
+      </c>
+      <c r="AN4">
+        <v>-3.155258764607679</v>
+      </c>
+      <c r="AO4">
+        <v>-16.35</v>
+      </c>
+      <c r="AP4">
+        <v>-3.068280467445742</v>
+      </c>
+      <c r="AQ4">
+        <v>-16.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Freetrailer Group A/S (NGM:FREETR)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NGM:FREETR</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Trucking</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.0019337533528788</v>
+      </c>
+      <c r="F2">
+        <v>0.12</v>
+      </c>
+      <c r="G2">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>14.3431368925598</v>
+      </c>
+      <c r="I2">
+        <v>14.501</v>
+      </c>
+      <c r="J2">
+        <v>14.7368568925598</v>
+      </c>
+      <c r="K2">
+        <v>0.031</v>
+      </c>
+      <c r="L2">
+        <v>1.92372</v>
+      </c>
+      <c r="M2">
+        <v>0.0473653518453556</v>
+      </c>
+      <c r="N2">
+        <v>0.0467561326837733</v>
+      </c>
+      <c r="O2">
+        <v>0.020124</v>
+      </c>
+      <c r="P2">
+        <v>0.012636</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.047418131964556</v>
+      </c>
+      <c r="T2">
+        <v>0.0514088780497424</v>
+      </c>
+      <c r="U2">
+        <v>0.807587541621949</v>
+      </c>
+      <c r="V2">
+        <v>0.892137246816577</v>
+      </c>
+      <c r="W2">
+        <v>14.53587994248797</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>16</v>
+      </c>
+      <c r="AB2">
+        <v>0.0472</v>
+      </c>
+      <c r="AC2">
+        <v>0.0258</v>
+      </c>
+      <c r="AD2">
+        <v>0.22</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="AH2">
+        <v>0.236</v>
+      </c>
+      <c r="AI2">
+        <v>0.139</v>
+      </c>
+      <c r="AJ2">
+        <v>0.031</v>
+      </c>
+      <c r="AK2">
+        <v>0.031</v>
+      </c>
+      <c r="AL2">
+        <v>0.057</v>
+      </c>
+      <c r="AM2">
+        <v>0.031</v>
+      </c>
+      <c r="AN2">
+        <v>1.53</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.04736061286336621</v>
+      </c>
+      <c r="C2">
+        <v>16.03280554049602</v>
+      </c>
+      <c r="D2">
+        <v>14.50280554049602</v>
+      </c>
+      <c r="E2">
+        <v>-0.031</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1.53</v>
+      </c>
+      <c r="H2">
+        <v>16</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K2">
+        <v>0.236</v>
+      </c>
+      <c r="L2">
+        <v>0.453</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.453</v>
+      </c>
+      <c r="O2">
+        <v>0.09965999999999998</v>
+      </c>
+      <c r="P2">
+        <v>0.35334</v>
+      </c>
+      <c r="Q2">
+        <v>0.58934</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.04736061286336621</v>
+      </c>
+      <c r="T2">
+        <v>0.8063689165967417</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.22</v>
+      </c>
+      <c r="W2">
+        <v>0.012636</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.0473102395150668</v>
+      </c>
+      <c r="C3">
+        <v>15.89171548975523</v>
+      </c>
+      <c r="D3">
+        <v>14.52202548975523</v>
+      </c>
+      <c r="E3">
+        <v>0.12931</v>
+      </c>
+      <c r="F3">
+        <v>0.16031</v>
+      </c>
+      <c r="G3">
+        <v>1.53</v>
+      </c>
+      <c r="H3">
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K3">
+        <v>0.236</v>
+      </c>
+      <c r="L3">
+        <v>0.453</v>
+      </c>
+      <c r="M3">
+        <v>0.002597022</v>
+      </c>
+      <c r="N3">
+        <v>0.450402978</v>
+      </c>
+      <c r="O3">
+        <v>0.09908865516</v>
+      </c>
+      <c r="P3">
+        <v>0.35131432284</v>
+      </c>
+      <c r="Q3">
+        <v>0.58731432284</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.04766048435865333</v>
+      </c>
+      <c r="T3">
+        <v>0.8127221262426554</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.22</v>
+      </c>
+      <c r="W3">
+        <v>0.012636</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>174.4305593098557</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.04725986616676739</v>
+      </c>
+      <c r="C4">
+        <v>15.75067644937333</v>
+      </c>
+      <c r="D4">
+        <v>14.54129644937333</v>
+      </c>
+      <c r="E4">
+        <v>0.28962</v>
+      </c>
+      <c r="F4">
+        <v>0.32062</v>
+      </c>
+      <c r="G4">
+        <v>1.53</v>
+      </c>
+      <c r="H4">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K4">
+        <v>0.236</v>
+      </c>
+      <c r="L4">
+        <v>0.453</v>
+      </c>
+      <c r="M4">
+        <v>0.005194043999999999</v>
+      </c>
+      <c r="N4">
+        <v>0.4478059559999999</v>
+      </c>
+      <c r="O4">
+        <v>0.09851731032</v>
+      </c>
+      <c r="P4">
+        <v>0.34928864568</v>
+      </c>
+      <c r="Q4">
+        <v>0.5852886456799999</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.04796647568037489</v>
+      </c>
+      <c r="T4">
+        <v>0.8192049932282817</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.22</v>
+      </c>
+      <c r="W4">
+        <v>0.012636</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>87.21527965492784</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.04720949281846799</v>
+      </c>
+      <c r="C5">
+        <v>15.60968862269484</v>
+      </c>
+      <c r="D5">
+        <v>14.56061862269484</v>
+      </c>
+      <c r="E5">
+        <v>0.4499299999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.48093</v>
+      </c>
+      <c r="G5">
+        <v>1.53</v>
+      </c>
+      <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K5">
+        <v>0.236</v>
+      </c>
+      <c r="L5">
+        <v>0.453</v>
+      </c>
+      <c r="M5">
+        <v>0.007791065999999999</v>
+      </c>
+      <c r="N5">
+        <v>0.4452089339999999</v>
+      </c>
+      <c r="O5">
+        <v>0.09794596547999999</v>
+      </c>
+      <c r="P5">
+        <v>0.3472629685199999</v>
+      </c>
+      <c r="Q5">
+        <v>0.5832629685199999</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.04827877610151339</v>
+      </c>
+      <c r="T5">
+        <v>0.8258215275744363</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.22</v>
+      </c>
+      <c r="W5">
+        <v>0.012636</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>58.14351976995189</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
         <v>0.04</v>
       </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0.04</v>
-      </c>
-      <c r="AG4">
-        <v>-1.03</v>
-      </c>
-      <c r="AH4">
-        <v>0.005873715124816447</v>
-      </c>
-      <c r="AI4">
-        <v>0.023121387283237</v>
-      </c>
-      <c r="AJ4">
-        <v>-0.1794425087108014</v>
-      </c>
-      <c r="AK4">
-        <v>-1.560606060606061</v>
-      </c>
-      <c r="AL4">
+      <c r="B6">
+        <v>0.04715911947016858</v>
+      </c>
+      <c r="C6">
+        <v>15.46875221414654</v>
+      </c>
+      <c r="D6">
+        <v>14.57999221414654</v>
+      </c>
+      <c r="E6">
+        <v>0.6102399999999999</v>
+      </c>
+      <c r="F6">
+        <v>0.6412399999999999</v>
+      </c>
+      <c r="G6">
+        <v>1.53</v>
+      </c>
+      <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K6">
+        <v>0.236</v>
+      </c>
+      <c r="L6">
+        <v>0.453</v>
+      </c>
+      <c r="M6">
+        <v>0.010388088</v>
+      </c>
+      <c r="N6">
+        <v>0.4426119119999999</v>
+      </c>
+      <c r="O6">
+        <v>0.09737462063999999</v>
+      </c>
+      <c r="P6">
+        <v>0.3452372913599999</v>
+      </c>
+      <c r="Q6">
+        <v>0.5812372913599999</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.04859758278142561</v>
+      </c>
+      <c r="T6">
+        <v>0.8325759063861358</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.22</v>
+      </c>
+      <c r="W6">
+        <v>0.012636</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>43.60763982746392</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.04710874612186919</v>
+      </c>
+      <c r="C7">
+        <v>15.32786742924461</v>
+      </c>
+      <c r="D7">
+        <v>14.59941742924461</v>
+      </c>
+      <c r="E7">
+        <v>0.77055</v>
+      </c>
+      <c r="F7">
+        <v>0.80155</v>
+      </c>
+      <c r="G7">
+        <v>1.53</v>
+      </c>
+      <c r="H7">
+        <v>16</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K7">
+        <v>0.236</v>
+      </c>
+      <c r="L7">
+        <v>0.453</v>
+      </c>
+      <c r="M7">
+        <v>0.01298511</v>
+      </c>
+      <c r="N7">
+        <v>0.4400148899999999</v>
+      </c>
+      <c r="O7">
+        <v>0.09680327579999999</v>
+      </c>
+      <c r="P7">
+        <v>0.3432116142</v>
+      </c>
+      <c r="Q7">
+        <v>0.5792116141999999</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.04892310118091493</v>
+      </c>
+      <c r="T7">
+        <v>0.8394724826465028</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.22</v>
+      </c>
+      <c r="W7">
+        <v>0.012636</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>34.88611186197113</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.04705837277356976</v>
+      </c>
+      <c r="C8">
+        <v>15.18703447460199</v>
+      </c>
+      <c r="D8">
+        <v>14.61889447460199</v>
+      </c>
+      <c r="E8">
+        <v>0.9308599999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.9618599999999999</v>
+      </c>
+      <c r="G8">
+        <v>1.53</v>
+      </c>
+      <c r="H8">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K8">
+        <v>0.236</v>
+      </c>
+      <c r="L8">
+        <v>0.453</v>
+      </c>
+      <c r="M8">
+        <v>0.015582132</v>
+      </c>
+      <c r="N8">
+        <v>0.4374178679999999</v>
+      </c>
+      <c r="O8">
+        <v>0.09623193095999999</v>
+      </c>
+      <c r="P8">
+        <v>0.3411859370399999</v>
+      </c>
+      <c r="Q8">
+        <v>0.5771859370399999</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.04925554550379763</v>
+      </c>
+      <c r="T8">
+        <v>0.8465157945719837</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.22</v>
+      </c>
+      <c r="W8">
+        <v>0.012636</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>29.07175988497594</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.04700799942527037</v>
+      </c>
+      <c r="C9">
+        <v>15.04625355793564</v>
+      </c>
+      <c r="D9">
+        <v>14.63842355793564</v>
+      </c>
+      <c r="E9">
+        <v>1.09117</v>
+      </c>
+      <c r="F9">
+        <v>1.12217</v>
+      </c>
+      <c r="G9">
+        <v>1.53</v>
+      </c>
+      <c r="H9">
+        <v>16</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K9">
+        <v>0.236</v>
+      </c>
+      <c r="L9">
+        <v>0.453</v>
+      </c>
+      <c r="M9">
+        <v>0.018179154</v>
+      </c>
+      <c r="N9">
+        <v>0.434820846</v>
+      </c>
+      <c r="O9">
+        <v>0.09566058612</v>
+      </c>
+      <c r="P9">
+        <v>0.33916025988</v>
+      </c>
+      <c r="Q9">
+        <v>0.57516025988</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.04959513916695739</v>
+      </c>
+      <c r="T9">
+        <v>0.8537105755711312</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.22</v>
+      </c>
+      <c r="W9">
+        <v>0.012636</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>24.91865132997938</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.04695762607697095</v>
+      </c>
+      <c r="C10">
+        <v>14.90552488807395</v>
+      </c>
+      <c r="D10">
+        <v>14.65800488807395</v>
+      </c>
+      <c r="E10">
+        <v>1.25148</v>
+      </c>
+      <c r="F10">
+        <v>1.28248</v>
+      </c>
+      <c r="G10">
+        <v>1.53</v>
+      </c>
+      <c r="H10">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K10">
+        <v>0.236</v>
+      </c>
+      <c r="L10">
+        <v>0.453</v>
+      </c>
+      <c r="M10">
+        <v>0.020776176</v>
+      </c>
+      <c r="N10">
+        <v>0.432223824</v>
+      </c>
+      <c r="O10">
+        <v>0.09508924128</v>
+      </c>
+      <c r="P10">
+        <v>0.33713458272</v>
+      </c>
+      <c r="Q10">
+        <v>0.57313458272</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.04994211530105538</v>
+      </c>
+      <c r="T10">
+        <v>0.8610617648528684</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.22</v>
+      </c>
+      <c r="W10">
+        <v>0.012636</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>21.80381991373196</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.04690725272867156</v>
+      </c>
+      <c r="C11">
+        <v>14.76484867496417</v>
+      </c>
+      <c r="D11">
+        <v>14.67763867496417</v>
+      </c>
+      <c r="E11">
+        <v>1.41179</v>
+      </c>
+      <c r="F11">
+        <v>1.44279</v>
+      </c>
+      <c r="G11">
+        <v>1.53</v>
+      </c>
+      <c r="H11">
+        <v>16</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K11">
+        <v>0.236</v>
+      </c>
+      <c r="L11">
+        <v>0.453</v>
+      </c>
+      <c r="M11">
+        <v>0.02337319799999999</v>
+      </c>
+      <c r="N11">
+        <v>0.429626802</v>
+      </c>
+      <c r="O11">
+        <v>0.09451789644</v>
+      </c>
+      <c r="P11">
+        <v>0.3351089055599999</v>
+      </c>
+      <c r="Q11">
+        <v>0.5711089055599999</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.05029671728425446</v>
+      </c>
+      <c r="T11">
+        <v>0.8685745187342047</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.22</v>
+      </c>
+      <c r="W11">
+        <v>0.012636</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>19.38117325665063</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.04685687938037215</v>
+      </c>
+      <c r="C12">
+        <v>14.62422512967992</v>
+      </c>
+      <c r="D12">
+        <v>14.69732512967992</v>
+      </c>
+      <c r="E12">
+        <v>1.5721</v>
+      </c>
+      <c r="F12">
+        <v>1.6031</v>
+      </c>
+      <c r="G12">
+        <v>1.53</v>
+      </c>
+      <c r="H12">
+        <v>16</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K12">
+        <v>0.236</v>
+      </c>
+      <c r="L12">
+        <v>0.453</v>
+      </c>
+      <c r="M12">
+        <v>0.02597022</v>
+      </c>
+      <c r="N12">
+        <v>0.42702978</v>
+      </c>
+      <c r="O12">
+        <v>0.0939465516</v>
+      </c>
+      <c r="P12">
+        <v>0.3330832284</v>
+      </c>
+      <c r="Q12">
+        <v>0.5690832284</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.05065919931152461</v>
+      </c>
+      <c r="T12">
+        <v>0.8762542227017927</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.22</v>
+      </c>
+      <c r="W12">
+        <v>0.012636</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>17.44305593098557</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.04680650603207275</v>
+      </c>
+      <c r="C13">
+        <v>14.48365446442878</v>
+      </c>
+      <c r="D13">
+        <v>14.71706446442878</v>
+      </c>
+      <c r="E13">
+        <v>1.73241</v>
+      </c>
+      <c r="F13">
+        <v>1.76341</v>
+      </c>
+      <c r="G13">
+        <v>1.53</v>
+      </c>
+      <c r="H13">
+        <v>16</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K13">
+        <v>0.236</v>
+      </c>
+      <c r="L13">
+        <v>0.453</v>
+      </c>
+      <c r="M13">
+        <v>0.028567242</v>
+      </c>
+      <c r="N13">
+        <v>0.424432758</v>
+      </c>
+      <c r="O13">
+        <v>0.09337520676</v>
+      </c>
+      <c r="P13">
+        <v>0.33105755124</v>
+      </c>
+      <c r="Q13">
+        <v>0.56705755124</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.05102982700232893</v>
+      </c>
+      <c r="T13">
+        <v>0.88410650428663</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.22</v>
+      </c>
+      <c r="W13">
+        <v>0.012636</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>15.85732357362324</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.04675613268377335</v>
+      </c>
+      <c r="C14">
+        <v>14.34313689255985</v>
+      </c>
+      <c r="D14">
+        <v>14.73685689255985</v>
+      </c>
+      <c r="E14">
+        <v>1.89272</v>
+      </c>
+      <c r="F14">
+        <v>1.92372</v>
+      </c>
+      <c r="G14">
+        <v>1.53</v>
+      </c>
+      <c r="H14">
+        <v>16</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K14">
+        <v>0.236</v>
+      </c>
+      <c r="L14">
+        <v>0.453</v>
+      </c>
+      <c r="M14">
+        <v>0.031164264</v>
+      </c>
+      <c r="N14">
+        <v>0.421835736</v>
+      </c>
+      <c r="O14">
+        <v>0.09280386191999999</v>
+      </c>
+      <c r="P14">
+        <v>0.32903187408</v>
+      </c>
+      <c r="Q14">
+        <v>0.56503187408</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.05140887804974244</v>
+      </c>
+      <c r="T14">
+        <v>0.892137246816577</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.22</v>
+      </c>
+      <c r="W14">
+        <v>0.012636</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>14.53587994248797</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.04686799933547394</v>
+      </c>
+      <c r="C15">
+        <v>14.1389447890057</v>
+      </c>
+      <c r="D15">
+        <v>14.6929747890057</v>
+      </c>
+      <c r="E15">
+        <v>2.05303</v>
+      </c>
+      <c r="F15">
+        <v>2.08403</v>
+      </c>
+      <c r="G15">
+        <v>1.53</v>
+      </c>
+      <c r="H15">
+        <v>16</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K15">
+        <v>0.236</v>
+      </c>
+      <c r="L15">
+        <v>0.453</v>
+      </c>
+      <c r="M15">
+        <v>0.037095734</v>
+      </c>
+      <c r="N15">
+        <v>0.415904266</v>
+      </c>
+      <c r="O15">
+        <v>0.09149893851999999</v>
+      </c>
+      <c r="P15">
+        <v>0.3244053274799999</v>
+      </c>
+      <c r="Q15">
+        <v>0.5604053274799999</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.05179664291433786</v>
+      </c>
+      <c r="T15">
+        <v>0.9003526041173274</v>
+      </c>
+      <c r="U15">
+        <v>0.0178</v>
+      </c>
+      <c r="V15">
+        <v>0.22</v>
+      </c>
+      <c r="W15">
+        <v>0.013884</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>12.2116467624013</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.04683010598717453</v>
+      </c>
+      <c r="C16">
+        <v>13.99346997256272</v>
+      </c>
+      <c r="D16">
+        <v>14.70780997256272</v>
+      </c>
+      <c r="E16">
+        <v>2.21334</v>
+      </c>
+      <c r="F16">
+        <v>2.24434</v>
+      </c>
+      <c r="G16">
+        <v>1.53</v>
+      </c>
+      <c r="H16">
+        <v>16</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K16">
+        <v>0.236</v>
+      </c>
+      <c r="L16">
+        <v>0.453</v>
+      </c>
+      <c r="M16">
+        <v>0.039949252</v>
+      </c>
+      <c r="N16">
+        <v>0.413050748</v>
+      </c>
+      <c r="O16">
+        <v>0.09087116456</v>
+      </c>
+      <c r="P16">
+        <v>0.32217958344</v>
+      </c>
+      <c r="Q16">
+        <v>0.55817958344</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.05219342556648202</v>
+      </c>
+      <c r="T16">
+        <v>0.9087590162390257</v>
+      </c>
+      <c r="U16">
+        <v>0.0178</v>
+      </c>
+      <c r="V16">
+        <v>0.22</v>
+      </c>
+      <c r="W16">
+        <v>0.013884</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>11.33938627937264</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.04704961263887512</v>
+      </c>
+      <c r="C17">
+        <v>13.74763691960294</v>
+      </c>
+      <c r="D17">
+        <v>14.62228691960294</v>
+      </c>
+      <c r="E17">
+        <v>2.37365</v>
+      </c>
+      <c r="F17">
+        <v>2.40465</v>
+      </c>
+      <c r="G17">
+        <v>1.53</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K17">
+        <v>0.236</v>
+      </c>
+      <c r="L17">
+        <v>0.453</v>
+      </c>
+      <c r="M17">
+        <v>0.04809299999999999</v>
+      </c>
+      <c r="N17">
+        <v>0.404907</v>
+      </c>
+      <c r="O17">
+        <v>0.08907954</v>
+      </c>
+      <c r="P17">
+        <v>0.3158274599999999</v>
+      </c>
+      <c r="Q17">
+        <v>0.5518274599999999</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.05259954428102956</v>
+      </c>
+      <c r="T17">
+        <v>0.9173632262929992</v>
+      </c>
+      <c r="U17">
         <v>0.02</v>
       </c>
-      <c r="AM4">
+      <c r="V17">
+        <v>0.22</v>
+      </c>
+      <c r="W17">
+        <v>0.0156</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>9.419250202732208</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.04702887929057571</v>
+      </c>
+      <c r="C18">
+        <v>13.59536238138549</v>
+      </c>
+      <c r="D18">
+        <v>14.63032238138549</v>
+      </c>
+      <c r="E18">
+        <v>2.53396</v>
+      </c>
+      <c r="F18">
+        <v>2.56496</v>
+      </c>
+      <c r="G18">
+        <v>1.53</v>
+      </c>
+      <c r="H18">
+        <v>16</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K18">
+        <v>0.236</v>
+      </c>
+      <c r="L18">
+        <v>0.453</v>
+      </c>
+      <c r="M18">
+        <v>0.05129919999999999</v>
+      </c>
+      <c r="N18">
+        <v>0.4017008</v>
+      </c>
+      <c r="O18">
+        <v>0.088374176</v>
+      </c>
+      <c r="P18">
+        <v>0.313326624</v>
+      </c>
+      <c r="Q18">
+        <v>0.549326624</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.05301533248878061</v>
+      </c>
+      <c r="T18">
+        <v>0.9261722984911147</v>
+      </c>
+      <c r="U18">
         <v>0.02</v>
       </c>
-      <c r="AN4">
-        <v>-0.2083333333333333</v>
-      </c>
-      <c r="AO4">
-        <v>-25.3</v>
-      </c>
-      <c r="AP4">
-        <v>5.364583333333333</v>
-      </c>
-      <c r="AQ4">
-        <v>-25.3</v>
+      <c r="V18">
+        <v>0.22</v>
+      </c>
+      <c r="W18">
+        <v>0.0156</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>8.830547065061445</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.04700814594227631</v>
+      </c>
+      <c r="C19">
+        <v>13.44309667956261</v>
+      </c>
+      <c r="D19">
+        <v>14.6383666795626</v>
+      </c>
+      <c r="E19">
+        <v>2.69427</v>
+      </c>
+      <c r="F19">
+        <v>2.72527</v>
+      </c>
+      <c r="G19">
+        <v>1.53</v>
+      </c>
+      <c r="H19">
+        <v>16</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K19">
+        <v>0.236</v>
+      </c>
+      <c r="L19">
+        <v>0.453</v>
+      </c>
+      <c r="M19">
+        <v>0.0545054</v>
+      </c>
+      <c r="N19">
+        <v>0.3984946</v>
+      </c>
+      <c r="O19">
+        <v>0.087668812</v>
+      </c>
+      <c r="P19">
+        <v>0.310825788</v>
+      </c>
+      <c r="Q19">
+        <v>0.546825788</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.05344113968948953</v>
+      </c>
+      <c r="T19">
+        <v>0.9351936374891852</v>
+      </c>
+      <c r="U19">
+        <v>0.02</v>
+      </c>
+      <c r="V19">
+        <v>0.22</v>
+      </c>
+      <c r="W19">
+        <v>0.0156</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>8.31110312005783</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.0471418525939769</v>
+      </c>
+      <c r="C20">
+        <v>13.23106492544845</v>
+      </c>
+      <c r="D20">
+        <v>14.58664492544845</v>
+      </c>
+      <c r="E20">
+        <v>2.854579999999999</v>
+      </c>
+      <c r="F20">
+        <v>2.88558</v>
+      </c>
+      <c r="G20">
+        <v>1.53</v>
+      </c>
+      <c r="H20">
+        <v>16</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K20">
+        <v>0.236</v>
+      </c>
+      <c r="L20">
+        <v>0.453</v>
+      </c>
+      <c r="M20">
+        <v>0.06088573799999999</v>
+      </c>
+      <c r="N20">
+        <v>0.392114262</v>
+      </c>
+      <c r="O20">
+        <v>0.08626513764</v>
+      </c>
+      <c r="P20">
+        <v>0.30584912436</v>
+      </c>
+      <c r="Q20">
+        <v>0.54184912436</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.05387733243167915</v>
+      </c>
+      <c r="T20">
+        <v>0.9444350091457447</v>
+      </c>
+      <c r="U20">
+        <v>0.0211</v>
+      </c>
+      <c r="V20">
+        <v>0.22</v>
+      </c>
+      <c r="W20">
+        <v>0.016458</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>7.440166036913276</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.04712969924567751</v>
+      </c>
+      <c r="C21">
+        <v>13.07544110006346</v>
+      </c>
+      <c r="D21">
+        <v>14.59133110006346</v>
+      </c>
+      <c r="E21">
+        <v>3.01489</v>
+      </c>
+      <c r="F21">
+        <v>3.04589</v>
+      </c>
+      <c r="G21">
+        <v>1.53</v>
+      </c>
+      <c r="H21">
+        <v>16</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K21">
+        <v>0.236</v>
+      </c>
+      <c r="L21">
+        <v>0.453</v>
+      </c>
+      <c r="M21">
+        <v>0.064268279</v>
+      </c>
+      <c r="N21">
+        <v>0.388731721</v>
+      </c>
+      <c r="O21">
+        <v>0.08552097861999999</v>
+      </c>
+      <c r="P21">
+        <v>0.30321074238</v>
+      </c>
+      <c r="Q21">
+        <v>0.53921074238</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.05432429536503396</v>
+      </c>
+      <c r="T21">
+        <v>0.953904562818516</v>
+      </c>
+      <c r="U21">
+        <v>0.0211</v>
+      </c>
+      <c r="V21">
+        <v>0.22</v>
+      </c>
+      <c r="W21">
+        <v>0.016458</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>7.048578350759945</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.04711754589737809</v>
+      </c>
+      <c r="C22">
+        <v>12.91982028665141</v>
+      </c>
+      <c r="D22">
+        <v>14.59602028665141</v>
+      </c>
+      <c r="E22">
+        <v>3.1752</v>
+      </c>
+      <c r="F22">
+        <v>3.2062</v>
+      </c>
+      <c r="G22">
+        <v>1.53</v>
+      </c>
+      <c r="H22">
+        <v>16</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K22">
+        <v>0.236</v>
+      </c>
+      <c r="L22">
+        <v>0.453</v>
+      </c>
+      <c r="M22">
+        <v>0.06765082</v>
+      </c>
+      <c r="N22">
+        <v>0.38534918</v>
+      </c>
+      <c r="O22">
+        <v>0.0847768196</v>
+      </c>
+      <c r="P22">
+        <v>0.3005723604</v>
+      </c>
+      <c r="Q22">
+        <v>0.5365723603999999</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.05478243237172262</v>
+      </c>
+      <c r="T22">
+        <v>0.9636108553331064</v>
+      </c>
+      <c r="U22">
+        <v>0.0211</v>
+      </c>
+      <c r="V22">
+        <v>0.22</v>
+      </c>
+      <c r="W22">
+        <v>0.016458</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>6.696149433221947</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.04735109254907868</v>
+      </c>
+      <c r="C23">
+        <v>12.66992411611755</v>
+      </c>
+      <c r="D23">
+        <v>14.50643411611755</v>
+      </c>
+      <c r="E23">
+        <v>3.335509999999999</v>
+      </c>
+      <c r="F23">
+        <v>3.366509999999999</v>
+      </c>
+      <c r="G23">
+        <v>1.53</v>
+      </c>
+      <c r="H23">
+        <v>16</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K23">
+        <v>0.236</v>
+      </c>
+      <c r="L23">
+        <v>0.453</v>
+      </c>
+      <c r="M23">
+        <v>0.07608312599999999</v>
+      </c>
+      <c r="N23">
+        <v>0.376916874</v>
+      </c>
+      <c r="O23">
+        <v>0.08292171227999999</v>
+      </c>
+      <c r="P23">
+        <v>0.29399516172</v>
+      </c>
+      <c r="Q23">
+        <v>0.5299951617199999</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.0552521677836439</v>
+      </c>
+      <c r="T23">
+        <v>0.9735628767721167</v>
+      </c>
+      <c r="U23">
+        <v>0.0226</v>
+      </c>
+      <c r="V23">
+        <v>0.22</v>
+      </c>
+      <c r="W23">
+        <v>0.017628</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>5.954014034596844</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.04735063920077928</v>
+      </c>
+      <c r="C24">
+        <v>12.50978695072362</v>
+      </c>
+      <c r="D24">
+        <v>14.50660695072362</v>
+      </c>
+      <c r="E24">
+        <v>3.49582</v>
+      </c>
+      <c r="F24">
+        <v>3.52682</v>
+      </c>
+      <c r="G24">
+        <v>1.53</v>
+      </c>
+      <c r="H24">
+        <v>16</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K24">
+        <v>0.236</v>
+      </c>
+      <c r="L24">
+        <v>0.453</v>
+      </c>
+      <c r="M24">
+        <v>0.07970613199999999</v>
+      </c>
+      <c r="N24">
+        <v>0.373293868</v>
+      </c>
+      <c r="O24">
+        <v>0.08212465095999999</v>
+      </c>
+      <c r="P24">
+        <v>0.29116921704</v>
+      </c>
+      <c r="Q24">
+        <v>0.52716921704</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.05573394769330677</v>
+      </c>
+      <c r="T24">
+        <v>0.9837700782480249</v>
+      </c>
+      <c r="U24">
+        <v>0.0226</v>
+      </c>
+      <c r="V24">
+        <v>0.22</v>
+      </c>
+      <c r="W24">
+        <v>0.017628</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>5.68337703302426</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.04735018585247988</v>
+      </c>
+      <c r="C25">
+        <v>12.34964978944816</v>
+      </c>
+      <c r="D25">
+        <v>14.50677978944816</v>
+      </c>
+      <c r="E25">
+        <v>3.65613</v>
+      </c>
+      <c r="F25">
+        <v>3.68713</v>
+      </c>
+      <c r="G25">
+        <v>1.53</v>
+      </c>
+      <c r="H25">
+        <v>16</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K25">
+        <v>0.236</v>
+      </c>
+      <c r="L25">
+        <v>0.453</v>
+      </c>
+      <c r="M25">
+        <v>0.08332913799999998</v>
+      </c>
+      <c r="N25">
+        <v>0.369670862</v>
+      </c>
+      <c r="O25">
+        <v>0.08132758964</v>
+      </c>
+      <c r="P25">
+        <v>0.28834327236</v>
+      </c>
+      <c r="Q25">
+        <v>0.52434327236</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.05622824136685699</v>
+      </c>
+      <c r="T25">
+        <v>0.9942424018401904</v>
+      </c>
+      <c r="U25">
+        <v>0.0226</v>
+      </c>
+      <c r="V25">
+        <v>0.22</v>
+      </c>
+      <c r="W25">
+        <v>0.017628</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>5.436273683762336</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.04734973250418047</v>
+      </c>
+      <c r="C26">
+        <v>12.18951263229132</v>
+      </c>
+      <c r="D26">
+        <v>14.50695263229132</v>
+      </c>
+      <c r="E26">
+        <v>3.81644</v>
+      </c>
+      <c r="F26">
+        <v>3.84744</v>
+      </c>
+      <c r="G26">
+        <v>1.53</v>
+      </c>
+      <c r="H26">
+        <v>16</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K26">
+        <v>0.236</v>
+      </c>
+      <c r="L26">
+        <v>0.453</v>
+      </c>
+      <c r="M26">
+        <v>0.086952144</v>
+      </c>
+      <c r="N26">
+        <v>0.3660478559999999</v>
+      </c>
+      <c r="O26">
+        <v>0.08053052831999999</v>
+      </c>
+      <c r="P26">
+        <v>0.2855173276799999</v>
+      </c>
+      <c r="Q26">
+        <v>0.5215173276799999</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.05673554276865851</v>
+      </c>
+      <c r="T26">
+        <v>1.004990312895307</v>
+      </c>
+      <c r="U26">
+        <v>0.0226</v>
+      </c>
+      <c r="V26">
+        <v>0.22</v>
+      </c>
+      <c r="W26">
+        <v>0.017628</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>5.209762280272238</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.04734927915588107</v>
+      </c>
+      <c r="C27">
+        <v>12.02937547925324</v>
+      </c>
+      <c r="D27">
+        <v>14.50712547925324</v>
+      </c>
+      <c r="E27">
+        <v>3.97675</v>
+      </c>
+      <c r="F27">
+        <v>4.00775</v>
+      </c>
+      <c r="G27">
+        <v>1.53</v>
+      </c>
+      <c r="H27">
+        <v>16</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K27">
+        <v>0.236</v>
+      </c>
+      <c r="L27">
+        <v>0.453</v>
+      </c>
+      <c r="M27">
+        <v>0.09057514999999999</v>
+      </c>
+      <c r="N27">
+        <v>0.36242485</v>
+      </c>
+      <c r="O27">
+        <v>0.07973346699999999</v>
+      </c>
+      <c r="P27">
+        <v>0.282691383</v>
+      </c>
+      <c r="Q27">
+        <v>0.518691383</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.05725637220784142</v>
+      </c>
+      <c r="T27">
+        <v>1.016024834911895</v>
+      </c>
+      <c r="U27">
+        <v>0.0226</v>
+      </c>
+      <c r="V27">
+        <v>0.22</v>
+      </c>
+      <c r="W27">
+        <v>0.017628</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>5.001371789061348</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.04734882580758167</v>
+      </c>
+      <c r="C28">
+        <v>11.86923833033407</v>
+      </c>
+      <c r="D28">
+        <v>14.50729833033407</v>
+      </c>
+      <c r="E28">
+        <v>4.13706</v>
+      </c>
+      <c r="F28">
+        <v>4.16806</v>
+      </c>
+      <c r="G28">
+        <v>1.53</v>
+      </c>
+      <c r="H28">
+        <v>16</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K28">
+        <v>0.236</v>
+      </c>
+      <c r="L28">
+        <v>0.453</v>
+      </c>
+      <c r="M28">
+        <v>0.09419815599999999</v>
+      </c>
+      <c r="N28">
+        <v>0.358801844</v>
+      </c>
+      <c r="O28">
+        <v>0.07893640568</v>
+      </c>
+      <c r="P28">
+        <v>0.27986543832</v>
+      </c>
+      <c r="Q28">
+        <v>0.51586543832</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.05779127811835361</v>
+      </c>
+      <c r="T28">
+        <v>1.027357587253254</v>
+      </c>
+      <c r="U28">
+        <v>0.0226</v>
+      </c>
+      <c r="V28">
+        <v>0.22</v>
+      </c>
+      <c r="W28">
+        <v>0.017628</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>4.809011335635912</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.04734837245928225</v>
+      </c>
+      <c r="C29">
+        <v>11.70910118553397</v>
+      </c>
+      <c r="D29">
+        <v>14.50747118553397</v>
+      </c>
+      <c r="E29">
+        <v>4.29737</v>
+      </c>
+      <c r="F29">
+        <v>4.32837</v>
+      </c>
+      <c r="G29">
+        <v>1.53</v>
+      </c>
+      <c r="H29">
+        <v>16</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K29">
+        <v>0.236</v>
+      </c>
+      <c r="L29">
+        <v>0.453</v>
+      </c>
+      <c r="M29">
+        <v>0.09782116199999999</v>
+      </c>
+      <c r="N29">
+        <v>0.3551788379999999</v>
+      </c>
+      <c r="O29">
+        <v>0.07813934435999999</v>
+      </c>
+      <c r="P29">
+        <v>0.27703949364</v>
+      </c>
+      <c r="Q29">
+        <v>0.51303949364</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.05834083898531815</v>
+      </c>
+      <c r="T29">
+        <v>1.03900082596013</v>
+      </c>
+      <c r="U29">
+        <v>0.0226</v>
+      </c>
+      <c r="V29">
+        <v>0.22</v>
+      </c>
+      <c r="W29">
+        <v>0.017628</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>4.630899804686434</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.06688915903797225</v>
+      </c>
+      <c r="C30">
+        <v>6.626208481277205</v>
+      </c>
+      <c r="D30">
+        <v>9.584888481277206</v>
+      </c>
+      <c r="E30">
+        <v>4.457680000000001</v>
+      </c>
+      <c r="F30">
+        <v>4.48868</v>
+      </c>
+      <c r="G30">
+        <v>1.53</v>
+      </c>
+      <c r="H30">
+        <v>16</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K30">
+        <v>0.236</v>
+      </c>
+      <c r="L30">
+        <v>0.453</v>
+      </c>
+      <c r="M30">
+        <v>0.48926612</v>
+      </c>
+      <c r="N30">
+        <v>-0.03626612000000007</v>
+      </c>
+      <c r="O30">
+        <v>-0.007978546400000015</v>
+      </c>
+      <c r="P30">
+        <v>-0.02828757360000005</v>
+      </c>
+      <c r="Q30">
+        <v>0.2077124263999999</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.05914703357191042</v>
+      </c>
+      <c r="T30">
+        <v>1.056081219743865</v>
+      </c>
+      <c r="U30">
+        <v>0.109</v>
+      </c>
+      <c r="V30">
+        <v>0.2036928287615745</v>
+      </c>
+      <c r="W30">
+        <v>0.08679748166498837</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.9258764943707934</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.06788615903797224</v>
+      </c>
+      <c r="C31">
+        <v>6.302785999203762</v>
+      </c>
+      <c r="D31">
+        <v>9.421775999203762</v>
+      </c>
+      <c r="E31">
+        <v>4.61799</v>
+      </c>
+      <c r="F31">
+        <v>4.64899</v>
+      </c>
+      <c r="G31">
+        <v>1.53</v>
+      </c>
+      <c r="H31">
+        <v>16</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K31">
+        <v>0.236</v>
+      </c>
+      <c r="L31">
+        <v>0.453</v>
+      </c>
+      <c r="M31">
+        <v>0.50673991</v>
+      </c>
+      <c r="N31">
+        <v>-0.05373991</v>
+      </c>
+      <c r="O31">
+        <v>-0.0118227802</v>
+      </c>
+      <c r="P31">
+        <v>-0.0419171298</v>
+      </c>
+      <c r="Q31">
+        <v>0.1940828702</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.05984910446728943</v>
+      </c>
+      <c r="T31">
+        <v>1.070955603120539</v>
+      </c>
+      <c r="U31">
+        <v>0.109</v>
+      </c>
+      <c r="V31">
+        <v>0.1966689381146237</v>
+      </c>
+      <c r="W31">
+        <v>0.08756308574550602</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.8939497187028351</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.06888315903797225</v>
+      </c>
+      <c r="C32">
+        <v>5.984822212078783</v>
+      </c>
+      <c r="D32">
+        <v>9.264122212078783</v>
+      </c>
+      <c r="E32">
+        <v>4.7783</v>
+      </c>
+      <c r="F32">
+        <v>4.809299999999999</v>
+      </c>
+      <c r="G32">
+        <v>1.53</v>
+      </c>
+      <c r="H32">
+        <v>16</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K32">
+        <v>0.236</v>
+      </c>
+      <c r="L32">
+        <v>0.453</v>
+      </c>
+      <c r="M32">
+        <v>0.5242136999999999</v>
+      </c>
+      <c r="N32">
+        <v>-0.07121369999999994</v>
+      </c>
+      <c r="O32">
+        <v>-0.01566701399999999</v>
+      </c>
+      <c r="P32">
+        <v>-0.05554668599999995</v>
+      </c>
+      <c r="Q32">
+        <v>0.180453314</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.06057123453110787</v>
+      </c>
+      <c r="T32">
+        <v>1.086254968879404</v>
+      </c>
+      <c r="U32">
+        <v>0.109</v>
+      </c>
+      <c r="V32">
+        <v>0.1901133068441363</v>
+      </c>
+      <c r="W32">
+        <v>0.08827764955398915</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.8641513947460741</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.06988015903797223</v>
+      </c>
+      <c r="C33">
+        <v>5.672047609936472</v>
+      </c>
+      <c r="D33">
+        <v>9.111657609936472</v>
+      </c>
+      <c r="E33">
+        <v>4.93861</v>
+      </c>
+      <c r="F33">
+        <v>4.969609999999999</v>
+      </c>
+      <c r="G33">
+        <v>1.53</v>
+      </c>
+      <c r="H33">
+        <v>16</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K33">
+        <v>0.236</v>
+      </c>
+      <c r="L33">
+        <v>0.453</v>
+      </c>
+      <c r="M33">
+        <v>0.5416874899999999</v>
+      </c>
+      <c r="N33">
+        <v>-0.08868748999999998</v>
+      </c>
+      <c r="O33">
+        <v>-0.0195112478</v>
+      </c>
+      <c r="P33">
+        <v>-0.06917624219999999</v>
+      </c>
+      <c r="Q33">
+        <v>0.1668237578</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.06131429590112392</v>
+      </c>
+      <c r="T33">
+        <v>1.101997794515337</v>
+      </c>
+      <c r="U33">
+        <v>0.109</v>
+      </c>
+      <c r="V33">
+        <v>0.1839806195265835</v>
+      </c>
+      <c r="W33">
+        <v>0.0889461124716024</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.8362755433026523</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.07087715903797225</v>
+      </c>
+      <c r="C34">
+        <v>5.364210137428283</v>
+      </c>
+      <c r="D34">
+        <v>8.964130137428283</v>
+      </c>
+      <c r="E34">
+        <v>5.09892</v>
+      </c>
+      <c r="F34">
+        <v>5.129919999999999</v>
+      </c>
+      <c r="G34">
+        <v>1.53</v>
+      </c>
+      <c r="H34">
+        <v>16</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K34">
+        <v>0.236</v>
+      </c>
+      <c r="L34">
+        <v>0.453</v>
+      </c>
+      <c r="M34">
+        <v>0.55916128</v>
+      </c>
+      <c r="N34">
+        <v>-0.10616128</v>
+      </c>
+      <c r="O34">
+        <v>-0.02335548160000001</v>
+      </c>
+      <c r="P34">
+        <v>-0.08280579840000002</v>
+      </c>
+      <c r="Q34">
+        <v>0.1531942016</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.06207921201731692</v>
+      </c>
+      <c r="T34">
+        <v>1.118203644434681</v>
+      </c>
+      <c r="U34">
+        <v>0.109</v>
+      </c>
+      <c r="V34">
+        <v>0.1782312251663778</v>
+      </c>
+      <c r="W34">
+        <v>0.08957279645686482</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.8101419325744443</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.08265323577961012</v>
+      </c>
+      <c r="C35">
+        <v>3.764805006880173</v>
+      </c>
+      <c r="D35">
+        <v>7.525035006880174</v>
+      </c>
+      <c r="E35">
+        <v>5.259230000000001</v>
+      </c>
+      <c r="F35">
+        <v>5.29023</v>
+      </c>
+      <c r="G35">
+        <v>1.53</v>
+      </c>
+      <c r="H35">
+        <v>16</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K35">
+        <v>0.236</v>
+      </c>
+      <c r="L35">
+        <v>0.453</v>
+      </c>
+      <c r="M35">
+        <v>0.741690246</v>
+      </c>
+      <c r="N35">
+        <v>-0.288690246</v>
+      </c>
+      <c r="O35">
+        <v>-0.06351185412</v>
+      </c>
+      <c r="P35">
+        <v>-0.2251783918800001</v>
+      </c>
+      <c r="Q35">
+        <v>0.01082160811999994</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.06358797151255728</v>
+      </c>
+      <c r="T35">
+        <v>1.150168887977909</v>
+      </c>
+      <c r="U35">
+        <v>0.1402</v>
+      </c>
+      <c r="V35">
+        <v>0.1343687618078774</v>
+      </c>
+      <c r="W35">
+        <v>0.1213614995945356</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.6107670991267155</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.08396223577961012</v>
+      </c>
+      <c r="C36">
+        <v>3.472563907829208</v>
+      </c>
+      <c r="D36">
+        <v>7.393103907829209</v>
+      </c>
+      <c r="E36">
+        <v>5.41954</v>
+      </c>
+      <c r="F36">
+        <v>5.45054</v>
+      </c>
+      <c r="G36">
+        <v>1.53</v>
+      </c>
+      <c r="H36">
+        <v>16</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K36">
+        <v>0.236</v>
+      </c>
+      <c r="L36">
+        <v>0.453</v>
+      </c>
+      <c r="M36">
+        <v>0.7641657079999999</v>
+      </c>
+      <c r="N36">
+        <v>-0.311165708</v>
+      </c>
+      <c r="O36">
+        <v>-0.06845645575999999</v>
+      </c>
+      <c r="P36">
+        <v>-0.24270925224</v>
+      </c>
+      <c r="Q36">
+        <v>-0.006709252240000019</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.06441051653547482</v>
+      </c>
+      <c r="T36">
+        <v>1.167595689310907</v>
+      </c>
+      <c r="U36">
+        <v>0.1402</v>
+      </c>
+      <c r="V36">
+        <v>0.1304167394017633</v>
+      </c>
+      <c r="W36">
+        <v>0.1219155731358728</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.5928033609171062</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.08527123577961013</v>
+      </c>
+      <c r="C37">
+        <v>3.184869208659344</v>
+      </c>
+      <c r="D37">
+        <v>7.265719208659345</v>
+      </c>
+      <c r="E37">
+        <v>5.57985</v>
+      </c>
+      <c r="F37">
+        <v>5.61085</v>
+      </c>
+      <c r="G37">
+        <v>1.53</v>
+      </c>
+      <c r="H37">
+        <v>16</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K37">
+        <v>0.236</v>
+      </c>
+      <c r="L37">
+        <v>0.453</v>
+      </c>
+      <c r="M37">
+        <v>0.78664117</v>
+      </c>
+      <c r="N37">
+        <v>-0.33364117</v>
+      </c>
+      <c r="O37">
+        <v>-0.07340105740000001</v>
+      </c>
+      <c r="P37">
+        <v>-0.2602401126</v>
+      </c>
+      <c r="Q37">
+        <v>-0.02424011260000003</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.06525837063602058</v>
+      </c>
+      <c r="T37">
+        <v>1.18555869991569</v>
+      </c>
+      <c r="U37">
+        <v>0.1402</v>
+      </c>
+      <c r="V37">
+        <v>0.1266905468474273</v>
+      </c>
+      <c r="W37">
+        <v>0.1224379853319907</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.5758661220337602</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.0865802357796101</v>
+      </c>
+      <c r="C38">
+        <v>2.901489883777132</v>
+      </c>
+      <c r="D38">
+        <v>7.142649883777131</v>
+      </c>
+      <c r="E38">
+        <v>5.740159999999999</v>
+      </c>
+      <c r="F38">
+        <v>5.771159999999999</v>
+      </c>
+      <c r="G38">
+        <v>1.53</v>
+      </c>
+      <c r="H38">
+        <v>16</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K38">
+        <v>0.236</v>
+      </c>
+      <c r="L38">
+        <v>0.453</v>
+      </c>
+      <c r="M38">
+        <v>0.8091166319999998</v>
+      </c>
+      <c r="N38">
+        <v>-0.3561166319999999</v>
+      </c>
+      <c r="O38">
+        <v>-0.07834565903999997</v>
+      </c>
+      <c r="P38">
+        <v>-0.2777709729599999</v>
+      </c>
+      <c r="Q38">
+        <v>-0.04177097295999993</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.06613272017720839</v>
+      </c>
+      <c r="T38">
+        <v>1.204083054601873</v>
+      </c>
+      <c r="U38">
+        <v>0.1402</v>
+      </c>
+      <c r="V38">
+        <v>0.1231713649905543</v>
+      </c>
+      <c r="W38">
+        <v>0.1229313746283243</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.559869840866156</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.08788923577961011</v>
+      </c>
+      <c r="C39">
+        <v>2.622210299646246</v>
+      </c>
+      <c r="D39">
+        <v>7.023680299646245</v>
+      </c>
+      <c r="E39">
+        <v>5.900469999999999</v>
+      </c>
+      <c r="F39">
+        <v>5.931469999999999</v>
+      </c>
+      <c r="G39">
+        <v>1.53</v>
+      </c>
+      <c r="H39">
+        <v>16</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K39">
+        <v>0.236</v>
+      </c>
+      <c r="L39">
+        <v>0.453</v>
+      </c>
+      <c r="M39">
+        <v>0.8315920939999998</v>
+      </c>
+      <c r="N39">
+        <v>-0.3785920939999998</v>
+      </c>
+      <c r="O39">
+        <v>-0.08329026067999996</v>
+      </c>
+      <c r="P39">
+        <v>-0.2953018333199999</v>
+      </c>
+      <c r="Q39">
+        <v>-0.05930183331999989</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.06703482684668789</v>
+      </c>
+      <c r="T39">
+        <v>1.223195484039998</v>
+      </c>
+      <c r="U39">
+        <v>0.1402</v>
+      </c>
+      <c r="V39">
+        <v>0.1198424091799988</v>
+      </c>
+      <c r="W39">
+        <v>0.1233980942329642</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.544738223545449</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.08919823577961013</v>
+      </c>
+      <c r="C40">
+        <v>2.346828953920944</v>
+      </c>
+      <c r="D40">
+        <v>6.908608953920945</v>
+      </c>
+      <c r="E40">
+        <v>6.06078</v>
+      </c>
+      <c r="F40">
+        <v>6.09178</v>
+      </c>
+      <c r="G40">
+        <v>1.53</v>
+      </c>
+      <c r="H40">
+        <v>16</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K40">
+        <v>0.236</v>
+      </c>
+      <c r="L40">
+        <v>0.453</v>
+      </c>
+      <c r="M40">
+        <v>0.8540675559999999</v>
+      </c>
+      <c r="N40">
+        <v>-0.401067556</v>
+      </c>
+      <c r="O40">
+        <v>-0.08823486232</v>
+      </c>
+      <c r="P40">
+        <v>-0.31283269368</v>
+      </c>
+      <c r="Q40">
+        <v>-0.07683269368000001</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.06796603373131191</v>
+      </c>
+      <c r="T40">
+        <v>1.242924443459998</v>
+      </c>
+      <c r="U40">
+        <v>0.1402</v>
+      </c>
+      <c r="V40">
+        <v>0.1166886615699988</v>
+      </c>
+      <c r="W40">
+        <v>0.1238402496478862</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.5304030071363581</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.09050723577961012</v>
+      </c>
+      <c r="C41">
+        <v>2.075157336524861</v>
+      </c>
+      <c r="D41">
+        <v>6.797247336524862</v>
+      </c>
+      <c r="E41">
+        <v>6.22109</v>
+      </c>
+      <c r="F41">
+        <v>6.25209</v>
+      </c>
+      <c r="G41">
+        <v>1.53</v>
+      </c>
+      <c r="H41">
+        <v>16</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K41">
+        <v>0.236</v>
+      </c>
+      <c r="L41">
+        <v>0.453</v>
+      </c>
+      <c r="M41">
+        <v>0.8765430179999999</v>
+      </c>
+      <c r="N41">
+        <v>-0.4235430179999999</v>
+      </c>
+      <c r="O41">
+        <v>-0.09317946395999999</v>
+      </c>
+      <c r="P41">
+        <v>-0.33036355404</v>
+      </c>
+      <c r="Q41">
+        <v>-0.09436355403999996</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.06892777198920225</v>
+      </c>
+      <c r="T41">
+        <v>1.263300254008522</v>
+      </c>
+      <c r="U41">
+        <v>0.1402</v>
+      </c>
+      <c r="V41">
+        <v>0.1136966446066655</v>
+      </c>
+      <c r="W41">
+        <v>0.1242597304261455</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.5168029300302978</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.09181623577961012</v>
+      </c>
+      <c r="C42">
+        <v>1.807018899133761</v>
+      </c>
+      <c r="D42">
+        <v>6.689418899133761</v>
+      </c>
+      <c r="E42">
+        <v>6.3814</v>
+      </c>
+      <c r="F42">
+        <v>6.4124</v>
+      </c>
+      <c r="G42">
+        <v>1.53</v>
+      </c>
+      <c r="H42">
+        <v>16</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K42">
+        <v>0.236</v>
+      </c>
+      <c r="L42">
+        <v>0.453</v>
+      </c>
+      <c r="M42">
+        <v>0.89901848</v>
+      </c>
+      <c r="N42">
+        <v>-0.44601848</v>
+      </c>
+      <c r="O42">
+        <v>-0.0981240656</v>
+      </c>
+      <c r="P42">
+        <v>-0.3478944144</v>
+      </c>
+      <c r="Q42">
+        <v>-0.1118944144</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.0699215681890223</v>
+      </c>
+      <c r="T42">
+        <v>1.284355258241998</v>
+      </c>
+      <c r="U42">
+        <v>0.1402</v>
+      </c>
+      <c r="V42">
+        <v>0.1108542284914989</v>
+      </c>
+      <c r="W42">
+        <v>0.1246582371654919</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.5038828567795403</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1113598750274215</v>
+      </c>
+      <c r="C43">
+        <v>0.3657393730880409</v>
+      </c>
+      <c r="D43">
+        <v>5.408449373088041</v>
+      </c>
+      <c r="E43">
+        <v>6.54171</v>
+      </c>
+      <c r="F43">
+        <v>6.57271</v>
+      </c>
+      <c r="G43">
+        <v>1.53</v>
+      </c>
+      <c r="H43">
+        <v>16</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K43">
+        <v>0.236</v>
+      </c>
+      <c r="L43">
+        <v>0.453</v>
+      </c>
+      <c r="M43">
+        <v>1.207406827</v>
+      </c>
+      <c r="N43">
+        <v>-0.7544068270000001</v>
+      </c>
+      <c r="O43">
+        <v>-0.16596950194</v>
+      </c>
+      <c r="P43">
+        <v>-0.58843732506</v>
+      </c>
+      <c r="Q43">
+        <v>-0.35243732506</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.07162640705292329</v>
+      </c>
+      <c r="T43">
+        <v>1.320474725697528</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0.08254053047523474</v>
+      </c>
+      <c r="W43">
+        <v>0.1685373045516994</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.3751842294328852</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1131038750274215</v>
+      </c>
+      <c r="C44">
+        <v>0.1145624791096225</v>
+      </c>
+      <c r="D44">
+        <v>5.317582479109621</v>
+      </c>
+      <c r="E44">
+        <v>6.702019999999999</v>
+      </c>
+      <c r="F44">
+        <v>6.733019999999999</v>
+      </c>
+      <c r="G44">
+        <v>1.53</v>
+      </c>
+      <c r="H44">
+        <v>16</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K44">
+        <v>0.236</v>
+      </c>
+      <c r="L44">
+        <v>0.453</v>
+      </c>
+      <c r="M44">
+        <v>1.236855774</v>
+      </c>
+      <c r="N44">
+        <v>-0.7838557739999999</v>
+      </c>
+      <c r="O44">
+        <v>-0.17244827028</v>
+      </c>
+      <c r="P44">
+        <v>-0.61140750372</v>
+      </c>
+      <c r="Q44">
+        <v>-0.37540750372</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.07270100027797369</v>
+      </c>
+      <c r="T44">
+        <v>1.343241531313002</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0.08057527974963394</v>
+      </c>
+      <c r="W44">
+        <v>0.1688983211099923</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.3662512715892451</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1148478750274215</v>
+      </c>
+      <c r="C45">
+        <v>-0.1336115715987187</v>
+      </c>
+      <c r="D45">
+        <v>5.229718428401281</v>
+      </c>
+      <c r="E45">
+        <v>6.86233</v>
+      </c>
+      <c r="F45">
+        <v>6.89333</v>
+      </c>
+      <c r="G45">
+        <v>1.53</v>
+      </c>
+      <c r="H45">
+        <v>16</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K45">
+        <v>0.236</v>
+      </c>
+      <c r="L45">
+        <v>0.453</v>
+      </c>
+      <c r="M45">
+        <v>1.266304721</v>
+      </c>
+      <c r="N45">
+        <v>-0.8133047210000001</v>
+      </c>
+      <c r="O45">
+        <v>-0.17892703862</v>
+      </c>
+      <c r="P45">
+        <v>-0.63437768238</v>
+      </c>
+      <c r="Q45">
+        <v>-0.39837768238</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.07381329852846445</v>
+      </c>
+      <c r="T45">
+        <v>1.36680717221323</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0.07870143603452616</v>
+      </c>
+      <c r="W45">
+        <v>0.1692425462004575</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.3577338001569371</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1165918750274215</v>
+      </c>
+      <c r="C46">
+        <v>-0.3789292102181472</v>
+      </c>
+      <c r="D46">
+        <v>5.144710789781852</v>
+      </c>
+      <c r="E46">
+        <v>7.02264</v>
+      </c>
+      <c r="F46">
+        <v>7.05364</v>
+      </c>
+      <c r="G46">
+        <v>1.53</v>
+      </c>
+      <c r="H46">
+        <v>16</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K46">
+        <v>0.236</v>
+      </c>
+      <c r="L46">
+        <v>0.453</v>
+      </c>
+      <c r="M46">
+        <v>1.295753668</v>
+      </c>
+      <c r="N46">
+        <v>-0.842753668</v>
+      </c>
+      <c r="O46">
+        <v>-0.18540580696</v>
+      </c>
+      <c r="P46">
+        <v>-0.65734786104</v>
+      </c>
+      <c r="Q46">
+        <v>-0.42134786104</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.07496532171647276</v>
+      </c>
+      <c r="T46">
+        <v>1.391214443145609</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0.07691276703374149</v>
+      </c>
+      <c r="W46">
+        <v>0.1695711246959017</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.3496034865170067</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1183358750274215</v>
+      </c>
+      <c r="C47">
+        <v>-0.621527499417672</v>
+      </c>
+      <c r="D47">
+        <v>5.062422500582327</v>
+      </c>
+      <c r="E47">
+        <v>7.18295</v>
+      </c>
+      <c r="F47">
+        <v>7.21395</v>
+      </c>
+      <c r="G47">
+        <v>1.53</v>
+      </c>
+      <c r="H47">
+        <v>16</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K47">
+        <v>0.236</v>
+      </c>
+      <c r="L47">
+        <v>0.453</v>
+      </c>
+      <c r="M47">
+        <v>1.325202615</v>
+      </c>
+      <c r="N47">
+        <v>-0.8722026150000001</v>
+      </c>
+      <c r="O47">
+        <v>-0.1918845753</v>
+      </c>
+      <c r="P47">
+        <v>-0.6803180397</v>
+      </c>
+      <c r="Q47">
+        <v>-0.4443180397000001</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.07615923665677227</v>
+      </c>
+      <c r="T47">
+        <v>1.416509251202802</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0.07520359443299166</v>
+      </c>
+      <c r="W47">
+        <v>0.1698850997026594</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.3418345201499621</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1200798750274215</v>
+      </c>
+      <c r="C48">
+        <v>-0.8615348707933848</v>
+      </c>
+      <c r="D48">
+        <v>4.982725129206615</v>
+      </c>
+      <c r="E48">
+        <v>7.34326</v>
+      </c>
+      <c r="F48">
+        <v>7.37426</v>
+      </c>
+      <c r="G48">
+        <v>1.53</v>
+      </c>
+      <c r="H48">
+        <v>16</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K48">
+        <v>0.236</v>
+      </c>
+      <c r="L48">
+        <v>0.453</v>
+      </c>
+      <c r="M48">
+        <v>1.354651562</v>
+      </c>
+      <c r="N48">
+        <v>-0.901651562</v>
+      </c>
+      <c r="O48">
+        <v>-0.19836334364</v>
+      </c>
+      <c r="P48">
+        <v>-0.70328821836</v>
+      </c>
+      <c r="Q48">
+        <v>-0.46728821836</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.07739737066893471</v>
+      </c>
+      <c r="T48">
+        <v>1.442740904002854</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0.07356873368444836</v>
+      </c>
+      <c r="W48">
+        <v>0.1701854236221668</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.3344033349293107</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1218238750274215</v>
+      </c>
+      <c r="C49">
+        <v>-1.099071793730572</v>
+      </c>
+      <c r="D49">
+        <v>4.905498206269427</v>
+      </c>
+      <c r="E49">
+        <v>7.50357</v>
+      </c>
+      <c r="F49">
+        <v>7.53457</v>
+      </c>
+      <c r="G49">
+        <v>1.53</v>
+      </c>
+      <c r="H49">
+        <v>16</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K49">
+        <v>0.236</v>
+      </c>
+      <c r="L49">
+        <v>0.453</v>
+      </c>
+      <c r="M49">
+        <v>1.384100509</v>
+      </c>
+      <c r="N49">
+        <v>-0.9311005090000001</v>
+      </c>
+      <c r="O49">
+        <v>-0.20484211198</v>
+      </c>
+      <c r="P49">
+        <v>-0.7262583970200001</v>
+      </c>
+      <c r="Q49">
+        <v>-0.4902583970200001</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.07868222671929197</v>
+      </c>
+      <c r="T49">
+        <v>1.469962430493474</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0.07200344147839627</v>
+      </c>
+      <c r="W49">
+        <v>0.1704729678004186</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.3272883703563467</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1235678750274215</v>
+      </c>
+      <c r="C50">
+        <v>-1.334251383015233</v>
+      </c>
+      <c r="D50">
+        <v>4.830628616984766</v>
+      </c>
+      <c r="E50">
+        <v>7.66388</v>
+      </c>
+      <c r="F50">
+        <v>7.694879999999999</v>
+      </c>
+      <c r="G50">
+        <v>1.53</v>
+      </c>
+      <c r="H50">
+        <v>16</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K50">
+        <v>0.236</v>
+      </c>
+      <c r="L50">
+        <v>0.453</v>
+      </c>
+      <c r="M50">
+        <v>1.413549456</v>
+      </c>
+      <c r="N50">
+        <v>-0.960549456</v>
+      </c>
+      <c r="O50">
+        <v>-0.21132088032</v>
+      </c>
+      <c r="P50">
+        <v>-0.74922857568</v>
+      </c>
+      <c r="Q50">
+        <v>-0.51322857568</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.0800165003100476</v>
+      </c>
+      <c r="T50">
+        <v>1.498230938772195</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0.07050336978092968</v>
+      </c>
+      <c r="W50">
+        <v>0.1707485309712432</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.3204698626405895</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1253118750274215</v>
+      </c>
+      <c r="C51">
+        <v>-1.56717995164047</v>
+      </c>
+      <c r="D51">
+        <v>4.758010048359529</v>
+      </c>
+      <c r="E51">
+        <v>7.82419</v>
+      </c>
+      <c r="F51">
+        <v>7.855189999999999</v>
+      </c>
+      <c r="G51">
+        <v>1.53</v>
+      </c>
+      <c r="H51">
+        <v>16</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K51">
+        <v>0.236</v>
+      </c>
+      <c r="L51">
+        <v>0.453</v>
+      </c>
+      <c r="M51">
+        <v>1.442998403</v>
+      </c>
+      <c r="N51">
+        <v>-0.9899984029999999</v>
+      </c>
+      <c r="O51">
+        <v>-0.21779964866</v>
+      </c>
+      <c r="P51">
+        <v>-0.7721987543399998</v>
+      </c>
+      <c r="Q51">
+        <v>-0.5361987543399999</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.08140309835534264</v>
+      </c>
+      <c r="T51">
+        <v>1.527608016003022</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0.06906452549968622</v>
+      </c>
+      <c r="W51">
+        <v>0.1710128466657077</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.3139296613622101</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1270558750274215</v>
+      </c>
+      <c r="C52">
+        <v>-1.797957514489515</v>
+      </c>
+      <c r="D52">
+        <v>4.687542485510484</v>
+      </c>
+      <c r="E52">
+        <v>7.9845</v>
+      </c>
+      <c r="F52">
+        <v>8.015499999999999</v>
+      </c>
+      <c r="G52">
+        <v>1.53</v>
+      </c>
+      <c r="H52">
+        <v>16</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K52">
+        <v>0.236</v>
+      </c>
+      <c r="L52">
+        <v>0.453</v>
+      </c>
+      <c r="M52">
+        <v>1.47244735</v>
+      </c>
+      <c r="N52">
+        <v>-1.01944735</v>
+      </c>
+      <c r="O52">
+        <v>-0.224278417</v>
+      </c>
+      <c r="P52">
+        <v>-0.795168933</v>
+      </c>
+      <c r="Q52">
+        <v>-0.559168933</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.08284516032244948</v>
+      </c>
+      <c r="T52">
+        <v>1.558160176323082</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0.0676832349896925</v>
+      </c>
+      <c r="W52">
+        <v>0.1712665897323935</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.3076510681349658</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1287998750274215</v>
+      </c>
+      <c r="C53">
+        <v>-2.02667824791375</v>
+      </c>
+      <c r="D53">
+        <v>4.61913175208625</v>
+      </c>
+      <c r="E53">
+        <v>8.14481</v>
+      </c>
+      <c r="F53">
+        <v>8.17581</v>
+      </c>
+      <c r="G53">
+        <v>1.53</v>
+      </c>
+      <c r="H53">
+        <v>16</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K53">
+        <v>0.236</v>
+      </c>
+      <c r="L53">
+        <v>0.453</v>
+      </c>
+      <c r="M53">
+        <v>1.501896297</v>
+      </c>
+      <c r="N53">
+        <v>-1.048896297</v>
+      </c>
+      <c r="O53">
+        <v>-0.23075718534</v>
+      </c>
+      <c r="P53">
+        <v>-0.8181391116600002</v>
+      </c>
+      <c r="Q53">
+        <v>-0.5821391116600002</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.08434608196168315</v>
+      </c>
+      <c r="T53">
+        <v>1.589959363594982</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0.06635611273499264</v>
+      </c>
+      <c r="W53">
+        <v>0.1715103820905819</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.3016186942499665</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1305438750274215</v>
+      </c>
+      <c r="C54">
+        <v>-2.253430909646694</v>
+      </c>
+      <c r="D54">
+        <v>4.552689090353305</v>
+      </c>
+      <c r="E54">
+        <v>8.305119999999999</v>
+      </c>
+      <c r="F54">
+        <v>8.336119999999999</v>
+      </c>
+      <c r="G54">
+        <v>1.53</v>
+      </c>
+      <c r="H54">
+        <v>16</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K54">
+        <v>0.236</v>
+      </c>
+      <c r="L54">
+        <v>0.453</v>
+      </c>
+      <c r="M54">
+        <v>1.531345244</v>
+      </c>
+      <c r="N54">
+        <v>-1.078345244</v>
+      </c>
+      <c r="O54">
+        <v>-0.23723595368</v>
+      </c>
+      <c r="P54">
+        <v>-0.8411092903199999</v>
+      </c>
+      <c r="Q54">
+        <v>-0.6051092903199999</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.08590954200255158</v>
+      </c>
+      <c r="T54">
+        <v>1.623083517003211</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0.0650800336439351</v>
+      </c>
+      <c r="W54">
+        <v>0.1717447978196091</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.2958183347451596</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1322878750274215</v>
+      </c>
+      <c r="C55">
+        <v>-2.478299222991046</v>
+      </c>
+      <c r="D55">
+        <v>4.488130777008954</v>
+      </c>
+      <c r="E55">
+        <v>8.46543</v>
+      </c>
+      <c r="F55">
+        <v>8.49643</v>
+      </c>
+      <c r="G55">
+        <v>1.53</v>
+      </c>
+      <c r="H55">
+        <v>16</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K55">
+        <v>0.236</v>
+      </c>
+      <c r="L55">
+        <v>0.453</v>
+      </c>
+      <c r="M55">
+        <v>1.560794191</v>
+      </c>
+      <c r="N55">
+        <v>-1.107794191</v>
+      </c>
+      <c r="O55">
+        <v>-0.24371472202</v>
+      </c>
+      <c r="P55">
+        <v>-0.86407946898</v>
+      </c>
+      <c r="Q55">
+        <v>-0.62807946898</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.08753953225792499</v>
+      </c>
+      <c r="T55">
+        <v>1.657617208854343</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.06385210848084198</v>
+      </c>
+      <c r="W55">
+        <v>0.1719703676720693</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.2902368567311</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1340318750274215</v>
+      </c>
+      <c r="C56">
+        <v>-2.701362228775516</v>
+      </c>
+      <c r="D56">
+        <v>4.425377771224483</v>
+      </c>
+      <c r="E56">
+        <v>8.625739999999999</v>
+      </c>
+      <c r="F56">
+        <v>8.656739999999999</v>
+      </c>
+      <c r="G56">
+        <v>1.53</v>
+      </c>
+      <c r="H56">
+        <v>16</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K56">
+        <v>0.236</v>
+      </c>
+      <c r="L56">
+        <v>0.453</v>
+      </c>
+      <c r="M56">
+        <v>1.590243138</v>
+      </c>
+      <c r="N56">
+        <v>-1.137243138</v>
+      </c>
+      <c r="O56">
+        <v>-0.25019349036</v>
+      </c>
+      <c r="P56">
+        <v>-0.88704964764</v>
+      </c>
+      <c r="Q56">
+        <v>-0.6510496476400001</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.0892403916548364</v>
+      </c>
+      <c r="T56">
+        <v>1.693652365568568</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.06266966202749305</v>
+      </c>
+      <c r="W56">
+        <v>0.1721875830855495</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.2848621001249684</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1357758750274215</v>
+      </c>
+      <c r="C57">
+        <v>-2.922694608192478</v>
+      </c>
+      <c r="D57">
+        <v>4.364355391807522</v>
+      </c>
+      <c r="E57">
+        <v>8.786049999999999</v>
+      </c>
+      <c r="F57">
+        <v>8.81705</v>
+      </c>
+      <c r="G57">
+        <v>1.53</v>
+      </c>
+      <c r="H57">
+        <v>16</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K57">
+        <v>0.236</v>
+      </c>
+      <c r="L57">
+        <v>0.453</v>
+      </c>
+      <c r="M57">
+        <v>1.619692085</v>
+      </c>
+      <c r="N57">
+        <v>-1.166692085</v>
+      </c>
+      <c r="O57">
+        <v>-0.2566722587</v>
+      </c>
+      <c r="P57">
+        <v>-0.9100198263000001</v>
+      </c>
+      <c r="Q57">
+        <v>-0.6740198263000001</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.09101684480272167</v>
+      </c>
+      <c r="T57">
+        <v>1.731289084803425</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.06153021362699317</v>
+      </c>
+      <c r="W57">
+        <v>0.1723968997567213</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.2796827892136052</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1375198750274215</v>
+      </c>
+      <c r="C58">
+        <v>-3.142366979288882</v>
+      </c>
+      <c r="D58">
+        <v>4.304993020711119</v>
+      </c>
+      <c r="E58">
+        <v>8.94636</v>
+      </c>
+      <c r="F58">
+        <v>8.977360000000001</v>
+      </c>
+      <c r="G58">
+        <v>1.53</v>
+      </c>
+      <c r="H58">
+        <v>16</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K58">
+        <v>0.236</v>
+      </c>
+      <c r="L58">
+        <v>0.453</v>
+      </c>
+      <c r="M58">
+        <v>1.649141032</v>
+      </c>
+      <c r="N58">
+        <v>-1.196141032</v>
+      </c>
+      <c r="O58">
+        <v>-0.2631510270400001</v>
+      </c>
+      <c r="P58">
+        <v>-0.9329900049600002</v>
+      </c>
+      <c r="Q58">
+        <v>-0.6969900049600002</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.09287404582096534</v>
+      </c>
+      <c r="T58">
+        <v>1.770636564003503</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.06043145981222543</v>
+      </c>
+      <c r="W58">
+        <v>0.1725987408324942</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.2746884536919337</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1392638750274215</v>
+      </c>
+      <c r="C59">
+        <v>-3.360446169585308</v>
+      </c>
+      <c r="D59">
+        <v>4.247223830414692</v>
+      </c>
+      <c r="E59">
+        <v>9.106669999999999</v>
+      </c>
+      <c r="F59">
+        <v>9.13767</v>
+      </c>
+      <c r="G59">
+        <v>1.53</v>
+      </c>
+      <c r="H59">
+        <v>16</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K59">
+        <v>0.236</v>
+      </c>
+      <c r="L59">
+        <v>0.453</v>
+      </c>
+      <c r="M59">
+        <v>1.678589979</v>
+      </c>
+      <c r="N59">
+        <v>-1.225589979</v>
+      </c>
+      <c r="O59">
+        <v>-0.26962979538</v>
+      </c>
+      <c r="P59">
+        <v>-0.95596018362</v>
+      </c>
+      <c r="Q59">
+        <v>-0.71996018362</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.09481762828191802</v>
+      </c>
+      <c r="T59">
+        <v>1.811814158515212</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.05937125876288815</v>
+      </c>
+      <c r="W59">
+        <v>0.1727934997652574</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.2698693580131281</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1410078750274215</v>
+      </c>
+      <c r="C60">
+        <v>-3.576995467035828</v>
+      </c>
+      <c r="D60">
+        <v>4.190984532964171</v>
+      </c>
+      <c r="E60">
+        <v>9.266979999999998</v>
+      </c>
+      <c r="F60">
+        <v>9.297979999999999</v>
+      </c>
+      <c r="G60">
+        <v>1.53</v>
+      </c>
+      <c r="H60">
+        <v>16</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K60">
+        <v>0.236</v>
+      </c>
+      <c r="L60">
+        <v>0.453</v>
+      </c>
+      <c r="M60">
+        <v>1.708038926</v>
+      </c>
+      <c r="N60">
+        <v>-1.255038926</v>
+      </c>
+      <c r="O60">
+        <v>-0.2761085637199999</v>
+      </c>
+      <c r="P60">
+        <v>-0.9789303622799997</v>
+      </c>
+      <c r="Q60">
+        <v>-0.7429303622799998</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.09685376228863034</v>
+      </c>
+      <c r="T60">
+        <v>1.854952590860812</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.05834761637042458</v>
+      </c>
+      <c r="W60">
+        <v>0.172981542872753</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.2652164380473845</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1427518750274215</v>
+      </c>
+      <c r="C61">
+        <v>-3.792074851310028</v>
+      </c>
+      <c r="D61">
+        <v>4.13621514868997</v>
+      </c>
+      <c r="E61">
+        <v>9.427289999999998</v>
+      </c>
+      <c r="F61">
+        <v>9.458289999999998</v>
+      </c>
+      <c r="G61">
+        <v>1.53</v>
+      </c>
+      <c r="H61">
+        <v>16</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K61">
+        <v>0.236</v>
+      </c>
+      <c r="L61">
+        <v>0.453</v>
+      </c>
+      <c r="M61">
+        <v>1.737487873</v>
+      </c>
+      <c r="N61">
+        <v>-1.284487873</v>
+      </c>
+      <c r="O61">
+        <v>-0.28258733206</v>
+      </c>
+      <c r="P61">
+        <v>-1.00190054094</v>
+      </c>
+      <c r="Q61">
+        <v>-0.7659005409399999</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.09898921990542621</v>
+      </c>
+      <c r="T61">
+        <v>1.900195336979369</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.05735867372007839</v>
+      </c>
+      <c r="W61">
+        <v>0.1731632116376216</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.2607212441821745</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1444958750274215</v>
+      </c>
+      <c r="C62">
+        <v>-4.005741207174084</v>
+      </c>
+      <c r="D62">
+        <v>4.082858792825915</v>
+      </c>
+      <c r="E62">
+        <v>9.587599999999998</v>
+      </c>
+      <c r="F62">
+        <v>9.618599999999999</v>
+      </c>
+      <c r="G62">
+        <v>1.53</v>
+      </c>
+      <c r="H62">
+        <v>16</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K62">
+        <v>0.236</v>
+      </c>
+      <c r="L62">
+        <v>0.453</v>
+      </c>
+      <c r="M62">
+        <v>1.76693682</v>
+      </c>
+      <c r="N62">
+        <v>-1.31393682</v>
+      </c>
+      <c r="O62">
+        <v>-0.2890661004</v>
+      </c>
+      <c r="P62">
+        <v>-1.0248707196</v>
+      </c>
+      <c r="Q62">
+        <v>-0.7888707196</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1012314504030618</v>
+      </c>
+      <c r="T62">
+        <v>1.947700220403853</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.05640269582474375</v>
+      </c>
+      <c r="W62">
+        <v>0.1733388247769946</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.2563758901124715</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1462398750274215</v>
+      </c>
+      <c r="C63">
+        <v>-4.218048521566714</v>
+      </c>
+      <c r="D63">
+        <v>4.030861478433286</v>
+      </c>
+      <c r="E63">
+        <v>9.747909999999999</v>
+      </c>
+      <c r="F63">
+        <v>9.77891</v>
+      </c>
+      <c r="G63">
+        <v>1.53</v>
+      </c>
+      <c r="H63">
+        <v>16</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K63">
+        <v>0.236</v>
+      </c>
+      <c r="L63">
+        <v>0.453</v>
+      </c>
+      <c r="M63">
+        <v>1.796385767</v>
+      </c>
+      <c r="N63">
+        <v>-1.343385767</v>
+      </c>
+      <c r="O63">
+        <v>-0.29554486874</v>
+      </c>
+      <c r="P63">
+        <v>-1.04784089826</v>
+      </c>
+      <c r="Q63">
+        <v>-0.8118408982600001</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1035886670800634</v>
+      </c>
+      <c r="T63">
+        <v>1.997641251696259</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.05547806146696106</v>
+      </c>
+      <c r="W63">
+        <v>0.1735086801085192</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.2521730066680049</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1479838750274215</v>
+      </c>
+      <c r="C64">
+        <v>-4.429048065805349</v>
+      </c>
+      <c r="D64">
+        <v>3.98017193419465</v>
+      </c>
+      <c r="E64">
+        <v>9.908219999999998</v>
+      </c>
+      <c r="F64">
+        <v>9.939219999999999</v>
+      </c>
+      <c r="G64">
+        <v>1.53</v>
+      </c>
+      <c r="H64">
+        <v>16</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K64">
+        <v>0.236</v>
+      </c>
+      <c r="L64">
+        <v>0.453</v>
+      </c>
+      <c r="M64">
+        <v>1.825834714</v>
+      </c>
+      <c r="N64">
+        <v>-1.372834714</v>
+      </c>
+      <c r="O64">
+        <v>-0.3020236370799999</v>
+      </c>
+      <c r="P64">
+        <v>-1.07081107692</v>
+      </c>
+      <c r="Q64">
+        <v>-0.8348110769199997</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1060699477926967</v>
+      </c>
+      <c r="T64">
+        <v>2.050210758319845</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.05458325402394557</v>
+      </c>
+      <c r="W64">
+        <v>0.1736730562358012</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.2481057001088436</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1497278750274215</v>
+      </c>
+      <c r="C65">
+        <v>-4.638788564215155</v>
+      </c>
+      <c r="D65">
+        <v>3.930741435784845</v>
+      </c>
+      <c r="E65">
+        <v>10.06853</v>
+      </c>
+      <c r="F65">
+        <v>10.09953</v>
+      </c>
+      <c r="G65">
+        <v>1.53</v>
+      </c>
+      <c r="H65">
+        <v>16</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K65">
+        <v>0.236</v>
+      </c>
+      <c r="L65">
+        <v>0.453</v>
+      </c>
+      <c r="M65">
+        <v>1.855283661</v>
+      </c>
+      <c r="N65">
+        <v>-1.402283661</v>
+      </c>
+      <c r="O65">
+        <v>-0.30850240542</v>
+      </c>
+      <c r="P65">
+        <v>-1.09378125558</v>
+      </c>
+      <c r="Q65">
+        <v>-0.8577812555799997</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1086853517870939</v>
+      </c>
+      <c r="T65">
+        <v>2.105621859896057</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.05371685316642261</v>
+      </c>
+      <c r="W65">
+        <v>0.1738322140733282</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.2441675143928301</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1514718750274215</v>
+      </c>
+      <c r="C66">
+        <v>-4.847316350346811</v>
+      </c>
+      <c r="D66">
+        <v>3.882523649653187</v>
+      </c>
+      <c r="E66">
+        <v>10.22884</v>
+      </c>
+      <c r="F66">
+        <v>10.25984</v>
+      </c>
+      <c r="G66">
+        <v>1.53</v>
+      </c>
+      <c r="H66">
+        <v>16</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K66">
+        <v>0.236</v>
+      </c>
+      <c r="L66">
+        <v>0.453</v>
+      </c>
+      <c r="M66">
+        <v>1.884732608</v>
+      </c>
+      <c r="N66">
+        <v>-1.431732608</v>
+      </c>
+      <c r="O66">
+        <v>-0.31498117376</v>
+      </c>
+      <c r="P66">
+        <v>-1.11675143424</v>
+      </c>
+      <c r="Q66">
+        <v>-0.88075143424</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1114460560034021</v>
+      </c>
+      <c r="T66">
+        <v>2.164111356004281</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.05287752733569727</v>
+      </c>
+      <c r="W66">
+        <v>0.1739863982284324</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.2403523969804421</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1532158750274215</v>
+      </c>
+      <c r="C67">
+        <v>-5.054675511835806</v>
+      </c>
+      <c r="D67">
+        <v>3.835474488164193</v>
+      </c>
+      <c r="E67">
+        <v>10.38915</v>
+      </c>
+      <c r="F67">
+        <v>10.42015</v>
+      </c>
+      <c r="G67">
+        <v>1.53</v>
+      </c>
+      <c r="H67">
+        <v>16</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K67">
+        <v>0.236</v>
+      </c>
+      <c r="L67">
+        <v>0.453</v>
+      </c>
+      <c r="M67">
+        <v>1.914181555</v>
+      </c>
+      <c r="N67">
+        <v>-1.461181555</v>
+      </c>
+      <c r="O67">
+        <v>-0.3214599421</v>
+      </c>
+      <c r="P67">
+        <v>-1.1397216129</v>
+      </c>
+      <c r="Q67">
+        <v>-0.9037216129000001</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1143645147463564</v>
+      </c>
+      <c r="T67">
+        <v>2.225943109032975</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.05206402691514807</v>
+      </c>
+      <c r="W67">
+        <v>0.1741358382556873</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.2366546677961275</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1549598750274215</v>
+      </c>
+      <c r="C68">
+        <v>-5.260908024855259</v>
+      </c>
+      <c r="D68">
+        <v>3.789551975144741</v>
+      </c>
+      <c r="E68">
+        <v>10.54946</v>
+      </c>
+      <c r="F68">
+        <v>10.58046</v>
+      </c>
+      <c r="G68">
+        <v>1.53</v>
+      </c>
+      <c r="H68">
+        <v>16</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K68">
+        <v>0.236</v>
+      </c>
+      <c r="L68">
+        <v>0.453</v>
+      </c>
+      <c r="M68">
+        <v>1.943630502</v>
+      </c>
+      <c r="N68">
+        <v>-1.490630502</v>
+      </c>
+      <c r="O68">
+        <v>-0.3279387104400001</v>
+      </c>
+      <c r="P68">
+        <v>-1.16269179156</v>
+      </c>
+      <c r="Q68">
+        <v>-0.9266917915600001</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.117454647533014</v>
+      </c>
+      <c r="T68">
+        <v>2.291412024004533</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.05127517802249431</v>
+      </c>
+      <c r="W68">
+        <v>0.1742807497972678</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.2330689910113378</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1567038750274215</v>
+      </c>
+      <c r="C69">
+        <v>-5.466053879024106</v>
+      </c>
+      <c r="D69">
+        <v>3.744716120975894</v>
+      </c>
+      <c r="E69">
+        <v>10.70977</v>
+      </c>
+      <c r="F69">
+        <v>10.74077</v>
+      </c>
+      <c r="G69">
+        <v>1.53</v>
+      </c>
+      <c r="H69">
+        <v>16</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K69">
+        <v>0.236</v>
+      </c>
+      <c r="L69">
+        <v>0.453</v>
+      </c>
+      <c r="M69">
+        <v>1.973079449</v>
+      </c>
+      <c r="N69">
+        <v>-1.520079449</v>
+      </c>
+      <c r="O69">
+        <v>-0.3344174787799999</v>
+      </c>
+      <c r="P69">
+        <v>-1.18566197022</v>
+      </c>
+      <c r="Q69">
+        <v>-0.94966197022</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1207320610946205</v>
+      </c>
+      <c r="T69">
+        <v>2.360848752004671</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.05050987685797947</v>
+      </c>
+      <c r="W69">
+        <v>0.1744213356211892</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.2295903493544522</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1584478750274215</v>
+      </c>
+      <c r="C70">
+        <v>-5.670151193551928</v>
+      </c>
+      <c r="D70">
+        <v>3.700928806448072</v>
+      </c>
+      <c r="E70">
+        <v>10.87008</v>
+      </c>
+      <c r="F70">
+        <v>10.90108</v>
+      </c>
+      <c r="G70">
+        <v>1.53</v>
+      </c>
+      <c r="H70">
+        <v>16</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K70">
+        <v>0.236</v>
+      </c>
+      <c r="L70">
+        <v>0.453</v>
+      </c>
+      <c r="M70">
+        <v>2.002528396</v>
+      </c>
+      <c r="N70">
+        <v>-1.549528396</v>
+      </c>
+      <c r="O70">
+        <v>-0.3408962471200001</v>
+      </c>
+      <c r="P70">
+        <v>-1.20863214888</v>
+      </c>
+      <c r="Q70">
+        <v>-0.9726321488800003</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1242143130038273</v>
+      </c>
+      <c r="T70">
+        <v>2.434625275504817</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.04976708455124448</v>
+      </c>
+      <c r="W70">
+        <v>0.1745577865679364</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.2262140206874749</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1601918750274215</v>
+      </c>
+      <c r="C71">
+        <v>-5.873236325329383</v>
+      </c>
+      <c r="D71">
+        <v>3.658153674670616</v>
+      </c>
+      <c r="E71">
+        <v>11.03039</v>
+      </c>
+      <c r="F71">
+        <v>11.06139</v>
+      </c>
+      <c r="G71">
+        <v>1.53</v>
+      </c>
+      <c r="H71">
+        <v>16</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K71">
+        <v>0.236</v>
+      </c>
+      <c r="L71">
+        <v>0.453</v>
+      </c>
+      <c r="M71">
+        <v>2.031977343</v>
+      </c>
+      <c r="N71">
+        <v>-1.578977343</v>
+      </c>
+      <c r="O71">
+        <v>-0.34737501546</v>
+      </c>
+      <c r="P71">
+        <v>-1.23160232754</v>
+      </c>
+      <c r="Q71">
+        <v>-0.9956023275400001</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1279212263265314</v>
+      </c>
+      <c r="T71">
+        <v>2.513161574714649</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.04904582245629891</v>
+      </c>
+      <c r="W71">
+        <v>0.1746902824147779</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.2229355566195405</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1619358750274215</v>
+      </c>
+      <c r="C72">
+        <v>-6.075343969608485</v>
+      </c>
+      <c r="D72">
+        <v>3.616356030391515</v>
+      </c>
+      <c r="E72">
+        <v>11.1907</v>
+      </c>
+      <c r="F72">
+        <v>11.2217</v>
+      </c>
+      <c r="G72">
+        <v>1.53</v>
+      </c>
+      <c r="H72">
+        <v>16</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K72">
+        <v>0.236</v>
+      </c>
+      <c r="L72">
+        <v>0.453</v>
+      </c>
+      <c r="M72">
+        <v>2.06142629</v>
+      </c>
+      <c r="N72">
+        <v>-1.60842629</v>
+      </c>
+      <c r="O72">
+        <v>-0.3538537838</v>
+      </c>
+      <c r="P72">
+        <v>-1.2545725062</v>
+      </c>
+      <c r="Q72">
+        <v>-1.0185725062</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1318752672040825</v>
+      </c>
+      <c r="T72">
+        <v>2.596933627205138</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.04834516784978035</v>
+      </c>
+      <c r="W72">
+        <v>0.1748189926659953</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.219750762953547</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1636798750274215</v>
+      </c>
+      <c r="C73">
+        <v>-6.276507253858667</v>
+      </c>
+      <c r="D73">
+        <v>3.575502746141332</v>
+      </c>
+      <c r="E73">
+        <v>11.35101</v>
+      </c>
+      <c r="F73">
+        <v>11.38201</v>
+      </c>
+      <c r="G73">
+        <v>1.53</v>
+      </c>
+      <c r="H73">
+        <v>16</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K73">
+        <v>0.236</v>
+      </c>
+      <c r="L73">
+        <v>0.453</v>
+      </c>
+      <c r="M73">
+        <v>2.090875237</v>
+      </c>
+      <c r="N73">
+        <v>-1.637875237</v>
+      </c>
+      <c r="O73">
+        <v>-0.36033255214</v>
+      </c>
+      <c r="P73">
+        <v>-1.27754268486</v>
+      </c>
+      <c r="Q73">
+        <v>-1.04154268486</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1361020005559474</v>
+      </c>
+      <c r="T73">
+        <v>2.686483062626004</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.04766424999274119</v>
+      </c>
+      <c r="W73">
+        <v>0.1749440772763334</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.2166556817851871</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1654238750274215</v>
+      </c>
+      <c r="C74">
+        <v>-6.47675782533228</v>
+      </c>
+      <c r="D74">
+        <v>3.535562174667718</v>
+      </c>
+      <c r="E74">
+        <v>11.51132</v>
+      </c>
+      <c r="F74">
+        <v>11.54232</v>
+      </c>
+      <c r="G74">
+        <v>1.53</v>
+      </c>
+      <c r="H74">
+        <v>16</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K74">
+        <v>0.236</v>
+      </c>
+      <c r="L74">
+        <v>0.453</v>
+      </c>
+      <c r="M74">
+        <v>2.120324184</v>
+      </c>
+      <c r="N74">
+        <v>-1.667324184</v>
+      </c>
+      <c r="O74">
+        <v>-0.36681132048</v>
+      </c>
+      <c r="P74">
+        <v>-1.30051286352</v>
+      </c>
+      <c r="Q74">
+        <v>-1.06451286352</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1406306434329455</v>
+      </c>
+      <c r="T74">
+        <v>2.782428886291218</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.04700224652061979</v>
+      </c>
+      <c r="W74">
+        <v>0.1750656873141621</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.2136465750937263</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1671678750274215</v>
+      </c>
+      <c r="C75">
+        <v>-6.676125932825965</v>
+      </c>
+      <c r="D75">
+        <v>3.496504067174034</v>
+      </c>
+      <c r="E75">
+        <v>11.67163</v>
+      </c>
+      <c r="F75">
+        <v>11.70263</v>
+      </c>
+      <c r="G75">
+        <v>1.53</v>
+      </c>
+      <c r="H75">
+        <v>16</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K75">
+        <v>0.236</v>
+      </c>
+      <c r="L75">
+        <v>0.453</v>
+      </c>
+      <c r="M75">
+        <v>2.149773131</v>
+      </c>
+      <c r="N75">
+        <v>-1.696773131</v>
+      </c>
+      <c r="O75">
+        <v>-0.37329008882</v>
+      </c>
+      <c r="P75">
+        <v>-1.32348304218</v>
+      </c>
+      <c r="Q75">
+        <v>-1.08748304218</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1454947413378694</v>
+      </c>
+      <c r="T75">
+        <v>2.885481808005708</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.04635838012992637</v>
+      </c>
+      <c r="W75">
+        <v>0.1751839655701325</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.2107199096814835</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1689118750274215</v>
+      </c>
+      <c r="C76">
+        <v>-6.874640503081804</v>
+      </c>
+      <c r="D76">
+        <v>3.458299496918194</v>
+      </c>
+      <c r="E76">
+        <v>11.83194</v>
+      </c>
+      <c r="F76">
+        <v>11.86294</v>
+      </c>
+      <c r="G76">
+        <v>1.53</v>
+      </c>
+      <c r="H76">
+        <v>16</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K76">
+        <v>0.236</v>
+      </c>
+      <c r="L76">
+        <v>0.453</v>
+      </c>
+      <c r="M76">
+        <v>2.179222078</v>
+      </c>
+      <c r="N76">
+        <v>-1.726222078</v>
+      </c>
+      <c r="O76">
+        <v>-0.3797688571599999</v>
+      </c>
+      <c r="P76">
+        <v>-1.34645322084</v>
+      </c>
+      <c r="Q76">
+        <v>-1.11045322084</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.1507330006200951</v>
+      </c>
+      <c r="T76">
+        <v>2.996461877544389</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.04573191553357601</v>
+      </c>
+      <c r="W76">
+        <v>0.1752990471164821</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.2078723433344364</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1706558750274215</v>
+      </c>
+      <c r="C77">
+        <v>-7.072329212233861</v>
+      </c>
+      <c r="D77">
+        <v>3.420920787766139</v>
+      </c>
+      <c r="E77">
+        <v>11.99225</v>
+      </c>
+      <c r="F77">
+        <v>12.02325</v>
+      </c>
+      <c r="G77">
+        <v>1.53</v>
+      </c>
+      <c r="H77">
+        <v>16</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K77">
+        <v>0.236</v>
+      </c>
+      <c r="L77">
+        <v>0.453</v>
+      </c>
+      <c r="M77">
+        <v>2.208671025</v>
+      </c>
+      <c r="N77">
+        <v>-1.755671025</v>
+      </c>
+      <c r="O77">
+        <v>-0.3862476255</v>
+      </c>
+      <c r="P77">
+        <v>-1.3694233995</v>
+      </c>
+      <c r="Q77">
+        <v>-1.1334233995</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.156390320644899</v>
+      </c>
+      <c r="T77">
+        <v>3.116320352646165</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.04512215665979501</v>
+      </c>
+      <c r="W77">
+        <v>0.1754110598215957</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.2051007120899773</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1723998750274215</v>
+      </c>
+      <c r="C78">
+        <v>-7.269218552670885</v>
+      </c>
+      <c r="D78">
+        <v>3.384341447329114</v>
+      </c>
+      <c r="E78">
+        <v>12.15256</v>
+      </c>
+      <c r="F78">
+        <v>12.18356</v>
+      </c>
+      <c r="G78">
+        <v>1.53</v>
+      </c>
+      <c r="H78">
+        <v>16</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K78">
+        <v>0.236</v>
+      </c>
+      <c r="L78">
+        <v>0.453</v>
+      </c>
+      <c r="M78">
+        <v>2.238119972</v>
+      </c>
+      <c r="N78">
+        <v>-1.785119972</v>
+      </c>
+      <c r="O78">
+        <v>-0.3927263938400001</v>
+      </c>
+      <c r="P78">
+        <v>-1.39239357816</v>
+      </c>
+      <c r="Q78">
+        <v>-1.15639357816</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.1625190840051031</v>
+      </c>
+      <c r="T78">
+        <v>3.246167034006421</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.04452844407216611</v>
+      </c>
+      <c r="W78">
+        <v>0.1755201248239431</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.202402018509846</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1741438750274215</v>
+      </c>
+      <c r="C79">
+        <v>-7.465333895654724</v>
+      </c>
+      <c r="D79">
+        <v>3.348536104345275</v>
+      </c>
+      <c r="E79">
+        <v>12.31287</v>
+      </c>
+      <c r="F79">
+        <v>12.34387</v>
+      </c>
+      <c r="G79">
+        <v>1.53</v>
+      </c>
+      <c r="H79">
+        <v>16</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K79">
+        <v>0.236</v>
+      </c>
+      <c r="L79">
+        <v>0.453</v>
+      </c>
+      <c r="M79">
+        <v>2.267568919</v>
+      </c>
+      <c r="N79">
+        <v>-1.814568919</v>
+      </c>
+      <c r="O79">
+        <v>-0.39920516218</v>
+      </c>
+      <c r="P79">
+        <v>-1.41536375682</v>
+      </c>
+      <c r="Q79">
+        <v>-1.17936375682</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.1691807833096728</v>
+      </c>
+      <c r="T79">
+        <v>3.387304731137136</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.04395015259070942</v>
+      </c>
+      <c r="W79">
+        <v>0.1756263569690867</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.1997734208668609</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1758878750274215</v>
+      </c>
+      <c r="C80">
+        <v>-7.66069955000542</v>
+      </c>
+      <c r="D80">
+        <v>3.31348044999458</v>
+      </c>
+      <c r="E80">
+        <v>12.47318</v>
+      </c>
+      <c r="F80">
+        <v>12.50418</v>
+      </c>
+      <c r="G80">
+        <v>1.53</v>
+      </c>
+      <c r="H80">
+        <v>16</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K80">
+        <v>0.236</v>
+      </c>
+      <c r="L80">
+        <v>0.453</v>
+      </c>
+      <c r="M80">
+        <v>2.297017866</v>
+      </c>
+      <c r="N80">
+        <v>-1.844017866</v>
+      </c>
+      <c r="O80">
+        <v>-0.40568393052</v>
+      </c>
+      <c r="P80">
+        <v>-1.43833393548</v>
+      </c>
+      <c r="Q80">
+        <v>-1.20233393548</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.1764480916419307</v>
+      </c>
+      <c r="T80">
+        <v>3.541273128007006</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.04338668909595673</v>
+      </c>
+      <c r="W80">
+        <v>0.1757298652130727</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.1972122231634397</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1776318750274215</v>
+      </c>
+      <c r="C81">
+        <v>-7.855338817138274</v>
+      </c>
+      <c r="D81">
+        <v>3.279151182861725</v>
+      </c>
+      <c r="E81">
+        <v>12.63349</v>
+      </c>
+      <c r="F81">
+        <v>12.66449</v>
+      </c>
+      <c r="G81">
+        <v>1.53</v>
+      </c>
+      <c r="H81">
+        <v>16</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K81">
+        <v>0.236</v>
+      </c>
+      <c r="L81">
+        <v>0.453</v>
+      </c>
+      <c r="M81">
+        <v>2.326466813</v>
+      </c>
+      <c r="N81">
+        <v>-1.873466813</v>
+      </c>
+      <c r="O81">
+        <v>-0.41216269886</v>
+      </c>
+      <c r="P81">
+        <v>-1.46130411414</v>
+      </c>
+      <c r="Q81">
+        <v>-1.22530411414</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.1844075245772607</v>
+      </c>
+      <c r="T81">
+        <v>3.709905181721626</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.04283749049980538</v>
+      </c>
+      <c r="W81">
+        <v>0.1758307529951858</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.1947158659082062</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1793758750274215</v>
+      </c>
+      <c r="C82">
+        <v>-8.049274042714734</v>
+      </c>
+      <c r="D82">
+        <v>3.245525957285266</v>
+      </c>
+      <c r="E82">
+        <v>12.7938</v>
+      </c>
+      <c r="F82">
+        <v>12.8248</v>
+      </c>
+      <c r="G82">
+        <v>1.53</v>
+      </c>
+      <c r="H82">
+        <v>16</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K82">
+        <v>0.236</v>
+      </c>
+      <c r="L82">
+        <v>0.453</v>
+      </c>
+      <c r="M82">
+        <v>2.35591576</v>
+      </c>
+      <c r="N82">
+        <v>-1.90291576</v>
+      </c>
+      <c r="O82">
+        <v>-0.4186414672</v>
+      </c>
+      <c r="P82">
+        <v>-1.4842742928</v>
+      </c>
+      <c r="Q82">
+        <v>-1.2482742928</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.1931629008061238</v>
+      </c>
+      <c r="T82">
+        <v>3.895400440807707</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.04230202186855781</v>
+      </c>
+      <c r="W82">
+        <v>0.1759291185827459</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.1922819175843536</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1811198750274215</v>
+      </c>
+      <c r="C83">
+        <v>-8.242526665147688</v>
+      </c>
+      <c r="D83">
+        <v>3.212583334852313</v>
+      </c>
+      <c r="E83">
+        <v>12.95411</v>
+      </c>
+      <c r="F83">
+        <v>12.98511</v>
+      </c>
+      <c r="G83">
+        <v>1.53</v>
+      </c>
+      <c r="H83">
+        <v>16</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K83">
+        <v>0.236</v>
+      </c>
+      <c r="L83">
+        <v>0.453</v>
+      </c>
+      <c r="M83">
+        <v>2.385364707</v>
+      </c>
+      <c r="N83">
+        <v>-1.932364707</v>
+      </c>
+      <c r="O83">
+        <v>-0.42512023554</v>
+      </c>
+      <c r="P83">
+        <v>-1.50724447146</v>
+      </c>
+      <c r="Q83">
+        <v>-1.27124447146</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2028398955853934</v>
+      </c>
+      <c r="T83">
+        <v>4.100421516639692</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.04177977468499537</v>
+      </c>
+      <c r="W83">
+        <v>0.1760250553903663</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.189908066749979</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.1828638750274215</v>
+      </c>
+      <c r="C84">
+        <v>-8.435117261182416</v>
+      </c>
+      <c r="D84">
+        <v>3.180302738817583</v>
+      </c>
+      <c r="E84">
+        <v>13.11442</v>
+      </c>
+      <c r="F84">
+        <v>13.14542</v>
+      </c>
+      <c r="G84">
+        <v>1.53</v>
+      </c>
+      <c r="H84">
+        <v>16</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K84">
+        <v>0.236</v>
+      </c>
+      <c r="L84">
+        <v>0.453</v>
+      </c>
+      <c r="M84">
+        <v>2.414813654</v>
+      </c>
+      <c r="N84">
+        <v>-1.961813654</v>
+      </c>
+      <c r="O84">
+        <v>-0.4315990038800001</v>
+      </c>
+      <c r="P84">
+        <v>-1.53021465012</v>
+      </c>
+      <c r="Q84">
+        <v>-1.29421465012</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.2135921120068042</v>
+      </c>
+      <c r="T84">
+        <v>4.328222712008563</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.04127026523761737</v>
+      </c>
+      <c r="W84">
+        <v>0.1761186522758497</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.1875921147164425</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.1846078750274215</v>
+      </c>
+      <c r="C85">
+        <v>-8.627065588756864</v>
+      </c>
+      <c r="D85">
+        <v>3.148664411243136</v>
+      </c>
+      <c r="E85">
+        <v>13.27473</v>
+      </c>
+      <c r="F85">
+        <v>13.30573</v>
+      </c>
+      <c r="G85">
+        <v>1.53</v>
+      </c>
+      <c r="H85">
+        <v>16</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K85">
+        <v>0.236</v>
+      </c>
+      <c r="L85">
+        <v>0.453</v>
+      </c>
+      <c r="M85">
+        <v>2.444262601</v>
+      </c>
+      <c r="N85">
+        <v>-1.991262601</v>
+      </c>
+      <c r="O85">
+        <v>-0.4380777722200001</v>
+      </c>
+      <c r="P85">
+        <v>-1.55318482878</v>
+      </c>
+      <c r="Q85">
+        <v>-1.31718482878</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.225609295066028</v>
+      </c>
+      <c r="T85">
+        <v>4.582824048009067</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.04077303312632077</v>
+      </c>
+      <c r="W85">
+        <v>0.1762099938146949</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.1853319687560034</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.1863518750274215</v>
+      </c>
+      <c r="C86">
+        <v>-8.818390627328792</v>
+      </c>
+      <c r="D86">
+        <v>3.117649372671206</v>
+      </c>
+      <c r="E86">
+        <v>13.43504</v>
+      </c>
+      <c r="F86">
+        <v>13.46604</v>
+      </c>
+      <c r="G86">
+        <v>1.53</v>
+      </c>
+      <c r="H86">
+        <v>16</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K86">
+        <v>0.236</v>
+      </c>
+      <c r="L86">
+        <v>0.453</v>
+      </c>
+      <c r="M86">
+        <v>2.473711548</v>
+      </c>
+      <c r="N86">
+        <v>-2.020711548</v>
+      </c>
+      <c r="O86">
+        <v>-0.44455654056</v>
+      </c>
+      <c r="P86">
+        <v>-1.57615500744</v>
+      </c>
+      <c r="Q86">
+        <v>-1.34015500744</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.2391286260076546</v>
+      </c>
+      <c r="T86">
+        <v>4.869250551009632</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.04028763987481697</v>
+      </c>
+      <c r="W86">
+        <v>0.1762991605549961</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.1831256357946225</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.1880958750274215</v>
+      </c>
+      <c r="C87">
+        <v>-9.009110615842815</v>
+      </c>
+      <c r="D87">
+        <v>3.087239384157184</v>
+      </c>
+      <c r="E87">
+        <v>13.59535</v>
+      </c>
+      <c r="F87">
+        <v>13.62635</v>
+      </c>
+      <c r="G87">
+        <v>1.53</v>
+      </c>
+      <c r="H87">
+        <v>16</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K87">
+        <v>0.236</v>
+      </c>
+      <c r="L87">
+        <v>0.453</v>
+      </c>
+      <c r="M87">
+        <v>2.503160495</v>
+      </c>
+      <c r="N87">
+        <v>-2.050160495</v>
+      </c>
+      <c r="O87">
+        <v>-0.4510353089</v>
+      </c>
+      <c r="P87">
+        <v>-1.5991251861</v>
+      </c>
+      <c r="Q87">
+        <v>-1.3631251861</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.254450534408165</v>
+      </c>
+      <c r="T87">
+        <v>5.193867254410274</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.03981366764099559</v>
+      </c>
+      <c r="W87">
+        <v>0.1763862292543491</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.1809712165499799</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.1898398750274215</v>
+      </c>
+      <c r="C88">
+        <v>-9.199243088496861</v>
+      </c>
+      <c r="D88">
+        <v>3.057416911503138</v>
+      </c>
+      <c r="E88">
+        <v>13.75566</v>
+      </c>
+      <c r="F88">
+        <v>13.78666</v>
+      </c>
+      <c r="G88">
+        <v>1.53</v>
+      </c>
+      <c r="H88">
+        <v>16</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K88">
+        <v>0.236</v>
+      </c>
+      <c r="L88">
+        <v>0.453</v>
+      </c>
+      <c r="M88">
+        <v>2.532609442</v>
+      </c>
+      <c r="N88">
+        <v>-2.079609442</v>
+      </c>
+      <c r="O88">
+        <v>-0.45751407724</v>
+      </c>
+      <c r="P88">
+        <v>-1.62209536476</v>
+      </c>
+      <c r="Q88">
+        <v>-1.38609536476</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.2719612868658909</v>
+      </c>
+      <c r="T88">
+        <v>5.564857772582436</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.03935071801726308</v>
+      </c>
+      <c r="W88">
+        <v>0.1764712731002288</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.1788669000784685</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.1915838750274215</v>
+      </c>
+      <c r="C89">
+        <v>-9.38880490845548</v>
+      </c>
+      <c r="D89">
+        <v>3.028165091544518</v>
+      </c>
+      <c r="E89">
+        <v>13.91597</v>
+      </c>
+      <c r="F89">
+        <v>13.94697</v>
+      </c>
+      <c r="G89">
+        <v>1.53</v>
+      </c>
+      <c r="H89">
+        <v>16</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K89">
+        <v>0.236</v>
+      </c>
+      <c r="L89">
+        <v>0.453</v>
+      </c>
+      <c r="M89">
+        <v>2.562058389</v>
+      </c>
+      <c r="N89">
+        <v>-2.109058389</v>
+      </c>
+      <c r="O89">
+        <v>-0.46399284558</v>
+      </c>
+      <c r="P89">
+        <v>-1.64506554342</v>
+      </c>
+      <c r="Q89">
+        <v>-1.40906554342</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.2921660012401903</v>
+      </c>
+      <c r="T89">
+        <v>5.992923755088778</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.03889841091361638</v>
+      </c>
+      <c r="W89">
+        <v>0.1765543619151687</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.1768109586982562</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.1933278750274215</v>
+      </c>
+      <c r="C90">
+        <v>-9.577812299646173</v>
+      </c>
+      <c r="D90">
+        <v>2.999467700353827</v>
+      </c>
+      <c r="E90">
+        <v>14.07628</v>
+      </c>
+      <c r="F90">
+        <v>14.10728</v>
+      </c>
+      <c r="G90">
+        <v>1.53</v>
+      </c>
+      <c r="H90">
+        <v>16</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K90">
+        <v>0.236</v>
+      </c>
+      <c r="L90">
+        <v>0.453</v>
+      </c>
+      <c r="M90">
+        <v>2.591507336</v>
+      </c>
+      <c r="N90">
+        <v>-2.138507336</v>
+      </c>
+      <c r="O90">
+        <v>-0.47047161392</v>
+      </c>
+      <c r="P90">
+        <v>-1.66803572208</v>
+      </c>
+      <c r="Q90">
+        <v>-1.43203572208</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.3157381680102063</v>
+      </c>
+      <c r="T90">
+        <v>6.492334068012845</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.03845638351687074</v>
+      </c>
+      <c r="W90">
+        <v>0.1766355623479509</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.1748017432585033</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.1950718750274215</v>
+      </c>
+      <c r="C91">
+        <v>-9.766280876764721</v>
+      </c>
+      <c r="D91">
+        <v>2.971309123235278</v>
+      </c>
+      <c r="E91">
+        <v>14.23659</v>
+      </c>
+      <c r="F91">
+        <v>14.26759</v>
+      </c>
+      <c r="G91">
+        <v>1.53</v>
+      </c>
+      <c r="H91">
+        <v>16</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K91">
+        <v>0.236</v>
+      </c>
+      <c r="L91">
+        <v>0.453</v>
+      </c>
+      <c r="M91">
+        <v>2.620956283</v>
+      </c>
+      <c r="N91">
+        <v>-2.167956283</v>
+      </c>
+      <c r="O91">
+        <v>-0.47695038226</v>
+      </c>
+      <c r="P91">
+        <v>-1.69100590074</v>
+      </c>
+      <c r="Q91">
+        <v>-1.45500590074</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.3435961832838613</v>
+      </c>
+      <c r="T91">
+        <v>7.082546256014012</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.03802428932005197</v>
+      </c>
+      <c r="W91">
+        <v>0.1767149380519065</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.1728376787275089</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.1968158750274215</v>
+      </c>
+      <c r="C92">
+        <v>-9.954225673606132</v>
+      </c>
+      <c r="D92">
+        <v>2.943674326393867</v>
+      </c>
+      <c r="E92">
+        <v>14.3969</v>
+      </c>
+      <c r="F92">
+        <v>14.4279</v>
+      </c>
+      <c r="G92">
+        <v>1.53</v>
+      </c>
+      <c r="H92">
+        <v>16</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K92">
+        <v>0.236</v>
+      </c>
+      <c r="L92">
+        <v>0.453</v>
+      </c>
+      <c r="M92">
+        <v>2.65040523</v>
+      </c>
+      <c r="N92">
+        <v>-2.19740523</v>
+      </c>
+      <c r="O92">
+        <v>-0.4834291506</v>
+      </c>
+      <c r="P92">
+        <v>-1.7139760794</v>
+      </c>
+      <c r="Q92">
+        <v>-1.4779760794</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.3770258016122475</v>
+      </c>
+      <c r="T92">
+        <v>7.790800881615414</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.03760179721649583</v>
+      </c>
+      <c r="W92">
+        <v>0.1767925498513297</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.170917260074981</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.1985598750274215</v>
+      </c>
+      <c r="C93">
+        <v>-10.14166116982918</v>
+      </c>
+      <c r="D93">
+        <v>2.916548830170818</v>
+      </c>
+      <c r="E93">
+        <v>14.55721</v>
+      </c>
+      <c r="F93">
+        <v>14.58821</v>
+      </c>
+      <c r="G93">
+        <v>1.53</v>
+      </c>
+      <c r="H93">
+        <v>16</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K93">
+        <v>0.236</v>
+      </c>
+      <c r="L93">
+        <v>0.453</v>
+      </c>
+      <c r="M93">
+        <v>2.679854177</v>
+      </c>
+      <c r="N93">
+        <v>-2.226854177</v>
+      </c>
+      <c r="O93">
+        <v>-0.4899079189400001</v>
+      </c>
+      <c r="P93">
+        <v>-1.73694625806</v>
+      </c>
+      <c r="Q93">
+        <v>-1.50094625806</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.4178842240136084</v>
+      </c>
+      <c r="T93">
+        <v>8.656445424017127</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.03718859065367719</v>
+      </c>
+      <c r="W93">
+        <v>0.1768684558969195</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.1690390484258054</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2003038750274215</v>
+      </c>
+      <c r="C94">
+        <v>-10.32860131625468</v>
+      </c>
+      <c r="D94">
+        <v>2.88991868374532</v>
+      </c>
+      <c r="E94">
+        <v>14.71752</v>
+      </c>
+      <c r="F94">
+        <v>14.74852</v>
+      </c>
+      <c r="G94">
+        <v>1.53</v>
+      </c>
+      <c r="H94">
+        <v>16</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K94">
+        <v>0.236</v>
+      </c>
+      <c r="L94">
+        <v>0.453</v>
+      </c>
+      <c r="M94">
+        <v>2.709303124</v>
+      </c>
+      <c r="N94">
+        <v>-2.256303124</v>
+      </c>
+      <c r="O94">
+        <v>-0.49638668728</v>
+      </c>
+      <c r="P94">
+        <v>-1.75991643672</v>
+      </c>
+      <c r="Q94">
+        <v>-1.52391643672</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.4689572520153095</v>
+      </c>
+      <c r="T94">
+        <v>9.738501102019271</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.03678436684222418</v>
+      </c>
+      <c r="W94">
+        <v>0.1769427118110834</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.1672016674646554</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2020478750274215</v>
+      </c>
+      <c r="C95">
+        <v>-10.51505955879035</v>
+      </c>
+      <c r="D95">
+        <v>2.86377044120965</v>
+      </c>
+      <c r="E95">
+        <v>14.87783</v>
+      </c>
+      <c r="F95">
+        <v>14.90883</v>
+      </c>
+      <c r="G95">
+        <v>1.53</v>
+      </c>
+      <c r="H95">
+        <v>16</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K95">
+        <v>0.236</v>
+      </c>
+      <c r="L95">
+        <v>0.453</v>
+      </c>
+      <c r="M95">
+        <v>2.738752071</v>
+      </c>
+      <c r="N95">
+        <v>-2.285752071</v>
+      </c>
+      <c r="O95">
+        <v>-0.5028654556200001</v>
+      </c>
+      <c r="P95">
+        <v>-1.78288661538</v>
+      </c>
+      <c r="Q95">
+        <v>-1.54688661538</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.5346225737317825</v>
+      </c>
+      <c r="T95">
+        <v>11.12971554516488</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.03638883601596371</v>
+      </c>
+      <c r="W95">
+        <v>0.1770153708238675</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.1654038000725623</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2037918750274215</v>
+      </c>
+      <c r="C96">
+        <v>-10.70104886106848</v>
+      </c>
+      <c r="D96">
+        <v>2.83809113893152</v>
+      </c>
+      <c r="E96">
+        <v>15.03814</v>
+      </c>
+      <c r="F96">
+        <v>15.06914</v>
+      </c>
+      <c r="G96">
+        <v>1.53</v>
+      </c>
+      <c r="H96">
+        <v>16</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K96">
+        <v>0.236</v>
+      </c>
+      <c r="L96">
+        <v>0.453</v>
+      </c>
+      <c r="M96">
+        <v>2.768201018</v>
+      </c>
+      <c r="N96">
+        <v>-2.315201018</v>
+      </c>
+      <c r="O96">
+        <v>-0.50934422396</v>
+      </c>
+      <c r="P96">
+        <v>-1.80585679404</v>
+      </c>
+      <c r="Q96">
+        <v>-1.56985679404</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.6221763360204129</v>
+      </c>
+      <c r="T96">
+        <v>12.9846681360257</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.03600172073919813</v>
+      </c>
+      <c r="W96">
+        <v>0.1770864839002093</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.1636441851781733</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2055358750274215</v>
+      </c>
+      <c r="C97">
+        <v>-10.88658172587648</v>
+      </c>
+      <c r="D97">
+        <v>2.812868274123517</v>
+      </c>
+      <c r="E97">
+        <v>15.19845</v>
+      </c>
+      <c r="F97">
+        <v>15.22945</v>
+      </c>
+      <c r="G97">
+        <v>1.53</v>
+      </c>
+      <c r="H97">
+        <v>16</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K97">
+        <v>0.236</v>
+      </c>
+      <c r="L97">
+        <v>0.453</v>
+      </c>
+      <c r="M97">
+        <v>2.797649965</v>
+      </c>
+      <c r="N97">
+        <v>-2.344649965</v>
+      </c>
+      <c r="O97">
+        <v>-0.5158229923000001</v>
+      </c>
+      <c r="P97">
+        <v>-1.8288269727</v>
+      </c>
+      <c r="Q97">
+        <v>-1.5928269727</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.7447516032244959</v>
+      </c>
+      <c r="T97">
+        <v>15.58160176323084</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.03562275525773289</v>
+      </c>
+      <c r="W97">
+        <v>0.1771560998591545</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.1619216148078767</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2072798750274215</v>
+      </c>
+      <c r="C98">
+        <v>-11.07167021545474</v>
+      </c>
+      <c r="D98">
+        <v>2.788089784545261</v>
+      </c>
+      <c r="E98">
+        <v>15.35876</v>
+      </c>
+      <c r="F98">
+        <v>15.38976</v>
+      </c>
+      <c r="G98">
+        <v>1.53</v>
+      </c>
+      <c r="H98">
+        <v>16</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K98">
+        <v>0.236</v>
+      </c>
+      <c r="L98">
+        <v>0.453</v>
+      </c>
+      <c r="M98">
+        <v>2.827098912</v>
+      </c>
+      <c r="N98">
+        <v>-2.374098912</v>
+      </c>
+      <c r="O98">
+        <v>-0.52230176064</v>
+      </c>
+      <c r="P98">
+        <v>-1.85179715136</v>
+      </c>
+      <c r="Q98">
+        <v>-1.61579715136</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>0.9286145040306177</v>
+      </c>
+      <c r="T98">
+        <v>19.47700220403851</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.03525168489046484</v>
+      </c>
+      <c r="W98">
+        <v>0.1772242654856216</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.1602349313202946</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2090238750274215</v>
+      </c>
+      <c r="C99">
+        <v>-11.25632597073101</v>
+      </c>
+      <c r="D99">
+        <v>2.763744029268986</v>
+      </c>
+      <c r="E99">
+        <v>15.51907</v>
+      </c>
+      <c r="F99">
+        <v>15.55007</v>
+      </c>
+      <c r="G99">
+        <v>1.53</v>
+      </c>
+      <c r="H99">
+        <v>16</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K99">
+        <v>0.236</v>
+      </c>
+      <c r="L99">
+        <v>0.453</v>
+      </c>
+      <c r="M99">
+        <v>2.856547859</v>
+      </c>
+      <c r="N99">
+        <v>-2.403547859</v>
+      </c>
+      <c r="O99">
+        <v>-0.5287805289799999</v>
+      </c>
+      <c r="P99">
+        <v>-1.87476733002</v>
+      </c>
+      <c r="Q99">
+        <v>-1.63876733002</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.235052672040824</v>
+      </c>
+      <c r="T99">
+        <v>25.96933627205135</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.03488826545860439</v>
+      </c>
+      <c r="W99">
+        <v>0.1772910256352544</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.1585830248118381</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2107678750274215</v>
+      </c>
+      <c r="C100">
+        <v>-11.44056022955585</v>
+      </c>
+      <c r="D100">
+        <v>2.739819770444154</v>
+      </c>
+      <c r="E100">
+        <v>15.67938</v>
+      </c>
+      <c r="F100">
+        <v>15.71038</v>
+      </c>
+      <c r="G100">
+        <v>1.53</v>
+      </c>
+      <c r="H100">
+        <v>16</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K100">
+        <v>0.236</v>
+      </c>
+      <c r="L100">
+        <v>0.453</v>
+      </c>
+      <c r="M100">
+        <v>2.885996806</v>
+      </c>
+      <c r="N100">
+        <v>-2.432996806</v>
+      </c>
+      <c r="O100">
+        <v>-0.53525929732</v>
+      </c>
+      <c r="P100">
+        <v>-1.89773750868</v>
+      </c>
+      <c r="Q100">
+        <v>-1.66173750868</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>1.847929008061236</v>
+      </c>
+      <c r="T100">
+        <v>38.95400440807703</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.03453226274984311</v>
+      </c>
+      <c r="W100">
+        <v>0.1773564233328538</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.156964830681105</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2125118750274215</v>
+      </c>
+      <c r="C101">
+        <v>-11.62438384399895</v>
+      </c>
+      <c r="D101">
+        <v>2.716306156001052</v>
+      </c>
+      <c r="E101">
+        <v>15.83969</v>
+      </c>
+      <c r="F101">
+        <v>15.87069</v>
+      </c>
+      <c r="G101">
+        <v>1.53</v>
+      </c>
+      <c r="H101">
+        <v>16</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K101">
+        <v>0.236</v>
+      </c>
+      <c r="L101">
+        <v>0.453</v>
+      </c>
+      <c r="M101">
+        <v>2.915445753</v>
+      </c>
+      <c r="N101">
+        <v>-2.462445753</v>
+      </c>
+      <c r="O101">
+        <v>-0.5417380656599999</v>
+      </c>
+      <c r="P101">
+        <v>-1.92070768734</v>
+      </c>
+      <c r="Q101">
+        <v>-1.68470768734</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>3.686558016122471</v>
+      </c>
+      <c r="T101">
+        <v>77.90800881615405</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.03418345201499622</v>
+      </c>
+      <c r="W101">
+        <v>0.1774204998648452</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.1553793273408919</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
